--- a/2025 Excel Esports Chile - The Grand Excel Fair (Juan Jose Cifuentes) - Case and Answers.xlsx
+++ b/2025 Excel Esports Chile - The Grand Excel Fair (Juan Jose Cifuentes) - Case and Answers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C11127-18B6-4B85-9F96-DA54116AF83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E70286-FE9B-4DA7-8DAD-4D03AA6F384B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{7AACD38C-9D70-42DF-BFBB-A00DA8F337DD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{7AACD38C-9D70-42DF-BFBB-A00DA8F337DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Answers" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_nT">Cueca!$A$2</definedName>
     <definedName name="_tFoodCart">Table1[#All]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="261">
   <si>
     <t>Juan José Cifuentes</t>
   </si>
@@ -1464,7 +1465,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1845,15 +1846,6 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1863,7 +1855,7 @@
   <dxfs count="12">
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1875,6 +1867,33 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Fuente de cuerpo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Fuente de cuerpo"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1883,7 +1902,37 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2012,87 +2061,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Fuente de cuerpo"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Fuente de cuerpo"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -2110,6 +2078,30 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Fuente de cuerpo"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2531,25 +2523,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{281469F6-A680-4F13-A5C4-A76AEA7BC253}" name="_tKites" displayName="_tKites" ref="B2:F32" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{281469F6-A680-4F13-A5C4-A76AEA7BC253}" name="_tKites" displayName="_tKites" ref="B2:F32" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="B2:F32" xr:uid="{281469F6-A680-4F13-A5C4-A76AEA7BC253}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B4F30E5E-B254-4101-8E49-EBAFA4A4A4F2}" name="Name" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{942B3D12-6914-4E12-BFAA-729ED1349061}" name="Shape" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{69AE0856-7D02-43E3-90FA-7194B5008A6A}" name="Size" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{5D24A910-A9F2-4B71-9EC8-0DDCA5C0B6E7}" name="Material" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{65544CFE-274F-4E76-A03C-ECED55B5349B}" name="Color" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{B4F30E5E-B254-4101-8E49-EBAFA4A4A4F2}" name="Name" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{942B3D12-6914-4E12-BFAA-729ED1349061}" name="Shape" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{69AE0856-7D02-43E3-90FA-7194B5008A6A}" name="Size" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{5D24A910-A9F2-4B71-9EC8-0DDCA5C0B6E7}" name="Material" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{65544CFE-274F-4E76-A03C-ECED55B5349B}" name="Color" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{751B59EB-3ACA-4593-973B-9B9301BB1BBC}" name="Table1" displayName="Table1" ref="A2:B10" totalsRowShown="0" headerRowBorderDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{751B59EB-3ACA-4593-973B-9B9301BB1BBC}" name="Table1" displayName="Table1" ref="A2:B10" totalsRowShown="0" headerRowBorderDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A2:B10" xr:uid="{751B59EB-3ACA-4593-973B-9B9301BB1BBC}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8CB7323C-E541-4E42-A2E7-A7B2E11D436D}" name="Dish" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{180E054B-923A-47A5-968C-D1DA2EE528FA}" name="Price" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{8CB7323C-E541-4E42-A2E7-A7B2E11D436D}" name="Dish" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{180E054B-923A-47A5-968C-D1DA2EE528FA}" name="Price" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2907,8 +2899,8 @@
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:AA277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="K89" sqref="K89"/>
+    <sheetView topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="E122" sqref="E122:E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8984375" defaultRowHeight="14.4"/>
@@ -5203,7 +5195,7 @@
       <c r="L112" s="51"/>
       <c r="M112" s="51"/>
     </row>
-    <row r="113" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="113" spans="2:25" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="B113" s="26" t="s">
         <v>75</v>
       </c>
@@ -5217,7 +5209,7 @@
       <c r="L113" s="51"/>
       <c r="M113" s="51"/>
     </row>
-    <row r="114" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="114" spans="2:25" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="B114" s="26"/>
       <c r="C114" s="48"/>
       <c r="F114" s="18"/>
@@ -5229,7 +5221,7 @@
       <c r="L114" s="51"/>
       <c r="M114" s="51"/>
     </row>
-    <row r="115" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="115" spans="2:25" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="B115" s="48" t="s">
         <v>76</v>
       </c>
@@ -5242,7 +5234,7 @@
       <c r="L115" s="51"/>
       <c r="M115" s="51"/>
     </row>
-    <row r="116" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="116" spans="2:25" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="B116" s="48" t="s">
         <v>77</v>
       </c>
@@ -5255,14 +5247,42 @@
       <c r="L116" s="51"/>
       <c r="M116" s="51"/>
     </row>
-    <row r="117" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="117" spans="2:25" s="9" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B117" s="27"/>
       <c r="F117" s="18"/>
       <c r="G117" s="32"/>
       <c r="H117" s="51"/>
       <c r="I117" s="51"/>
-    </row>
-    <row r="118" spans="2:15" s="9" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+      <c r="P117" s="9" cm="1">
+        <f t="array" ref="P117:X117">_xlfn.SEQUENCE(1,9,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q117" s="9">
+        <v>2</v>
+      </c>
+      <c r="R117" s="9">
+        <v>3</v>
+      </c>
+      <c r="S117" s="9">
+        <v>4</v>
+      </c>
+      <c r="T117" s="9">
+        <v>5</v>
+      </c>
+      <c r="U117" s="9">
+        <v>6</v>
+      </c>
+      <c r="V117" s="9">
+        <v>7</v>
+      </c>
+      <c r="W117" s="9">
+        <v>8</v>
+      </c>
+      <c r="X117" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="2:25" s="9" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
       <c r="B118" s="12" t="s">
         <v>9</v>
       </c>
@@ -5303,13 +5323,52 @@
       <c r="O118" s="12" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="119" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="P118" t="str" cm="1">
+        <f t="array" ref="P118:X118">_xlfn.REGEXEXTRACT(_nT,"\[(\w+)\]",1)&amp;_xlfn.SEQUENCE(1,9,1)</f>
+        <v>[Entrada]1</v>
+      </c>
+      <c r="Q118" t="str">
+        <v>[Escobillado]2</v>
+      </c>
+      <c r="R118" t="str">
+        <v>[Zapateo]3</v>
+      </c>
+      <c r="S118" t="str">
+        <v>[Vuelta]4</v>
+      </c>
+      <c r="T118" t="str">
+        <v>[Escobillado]5</v>
+      </c>
+      <c r="U118" t="str">
+        <v>[Zapateo]6</v>
+      </c>
+      <c r="V118" t="str">
+        <v>[Vuelta]7</v>
+      </c>
+      <c r="W118" t="str">
+        <v>[Zapateo]8</v>
+      </c>
+      <c r="X118" t="str">
+        <v>[Remate]9</v>
+      </c>
+      <c r="Y118"/>
+    </row>
+    <row r="119" spans="2:25" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="F119" s="18"/>
-      <c r="H119" s="52"/>
-      <c r="J119" s="52"/>
-    </row>
-    <row r="120" spans="2:15" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="P119" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q119"/>
+      <c r="R119"/>
+      <c r="S119"/>
+      <c r="T119"/>
+      <c r="U119"/>
+      <c r="V119"/>
+      <c r="W119"/>
+      <c r="X119"/>
+      <c r="Y119"/>
+    </row>
+    <row r="120" spans="2:25" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B120" s="33" t="s">
         <v>87</v>
       </c>
@@ -5350,20 +5409,70 @@
       <c r="O120" s="34" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="121" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="P120" s="9" t="str" cm="1">
+        <f t="array" ref="P120:X120">INDEX($G$120:$O$141,P119,)&amp;_xlfn.SEQUENCE(1,9,1)</f>
+        <v>[Entrada]1</v>
+      </c>
+      <c r="Q120" s="9" t="str">
+        <v>[Vuelta]2</v>
+      </c>
+      <c r="R120" s="9" t="str">
+        <v>[Zapateo]3</v>
+      </c>
+      <c r="S120" s="9" t="str">
+        <v>[Escobillado]4</v>
+      </c>
+      <c r="T120" s="9" t="str">
+        <v>[Escobillado]5</v>
+      </c>
+      <c r="U120" s="9" t="str">
+        <v>[Zapateo]6</v>
+      </c>
+      <c r="V120" s="9" t="str">
+        <v>[Vuelta]7</v>
+      </c>
+      <c r="W120" s="9" t="str">
+        <v>[Zapateo]8</v>
+      </c>
+      <c r="X120" s="9" t="str">
+        <v>[Zapateo]9</v>
+      </c>
+    </row>
+    <row r="121" spans="2:25" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="F121" s="18"/>
-      <c r="G121" s="41"/>
-      <c r="H121" s="41"/>
-      <c r="I121" s="41"/>
-      <c r="J121" s="41"/>
-      <c r="K121" s="41"/>
-      <c r="L121" s="41"/>
-      <c r="M121" s="41"/>
-      <c r="N121" s="41"/>
-      <c r="O121" s="41"/>
-    </row>
-    <row r="122" spans="2:15" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="G121" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="H121" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="I121" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="J121" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="K121" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="L121" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="M121" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="N121" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="O121" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="P121" s="9" cm="1">
+        <f t="array" ref="P121">9-SUM(--ISNA(_xlfn.XMATCH(_xlfn.ANCHORARRAY(P120),_xlfn.ANCHORARRAY(P118))))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="2:25" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B122" s="34">
         <v>41</v>
       </c>
@@ -5373,7 +5482,9 @@
       <c r="D122" s="42">
         <v>8</v>
       </c>
-      <c r="E122" s="17"/>
+      <c r="E122" s="17">
+        <v>6</v>
+      </c>
       <c r="F122" s="18"/>
       <c r="G122" s="34" t="s">
         <v>88</v>
@@ -5402,8 +5513,12 @@
       <c r="O122" s="34" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="123" spans="2:15" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="Q122" s="9">
+        <f>P121</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="2:25" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B123" s="34">
         <v>42</v>
       </c>
@@ -5413,7 +5528,9 @@
       <c r="D123" s="42">
         <v>8</v>
       </c>
-      <c r="E123" s="17"/>
+      <c r="E123" s="17">
+        <v>7</v>
+      </c>
       <c r="F123" s="18"/>
       <c r="G123" s="34" t="s">
         <v>88</v>
@@ -5442,8 +5559,16 @@
       <c r="O123" s="34" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="124" spans="2:15" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="P123" s="9" cm="1">
+        <f t="array" ref="P123:P142">_xlfn.SEQUENCE(20,1,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="Q123" s="9">
+        <f t="dataTable" ref="Q123:Q142" dt2D="0" dtr="0" r1="P119"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="2:25" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B124" s="34">
         <v>43</v>
       </c>
@@ -5453,7 +5578,9 @@
       <c r="D124" s="42">
         <v>8</v>
       </c>
-      <c r="E124" s="17"/>
+      <c r="E124" s="17">
+        <v>7</v>
+      </c>
       <c r="F124" s="18"/>
       <c r="G124" s="34" t="s">
         <v>90</v>
@@ -5482,8 +5609,14 @@
       <c r="O124" s="34" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="125" spans="2:15" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="P124" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q124" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="2:25" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B125" s="34">
         <v>44</v>
       </c>
@@ -5493,7 +5626,9 @@
       <c r="D125" s="42">
         <v>8</v>
       </c>
-      <c r="E125" s="17"/>
+      <c r="E125" s="17">
+        <v>5</v>
+      </c>
       <c r="F125" s="18"/>
       <c r="G125" s="34" t="s">
         <v>88</v>
@@ -5522,8 +5657,14 @@
       <c r="O125" s="34" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="126" spans="2:15" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="P125" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q125" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="2:25" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B126" s="34">
         <v>45</v>
       </c>
@@ -5533,7 +5674,9 @@
       <c r="D126" s="42">
         <v>8</v>
       </c>
-      <c r="E126" s="17"/>
+      <c r="E126" s="17">
+        <v>7</v>
+      </c>
       <c r="F126" s="18"/>
       <c r="G126" s="34" t="s">
         <v>91</v>
@@ -5562,8 +5705,14 @@
       <c r="O126" s="34" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="127" spans="2:15" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="P126" s="9">
+        <v>6</v>
+      </c>
+      <c r="Q126" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="2:25" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B127" s="34">
         <v>46</v>
       </c>
@@ -5573,7 +5722,9 @@
       <c r="D127" s="42">
         <v>8</v>
       </c>
-      <c r="E127" s="17"/>
+      <c r="E127" s="17">
+        <v>6</v>
+      </c>
       <c r="F127" s="18"/>
       <c r="G127" s="34" t="s">
         <v>88</v>
@@ -5602,8 +5753,14 @@
       <c r="O127" s="34" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="128" spans="2:15" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="P127" s="9">
+        <v>7</v>
+      </c>
+      <c r="Q127" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="2:25" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B128" s="34">
         <v>47</v>
       </c>
@@ -5613,7 +5770,9 @@
       <c r="D128" s="42">
         <v>8</v>
       </c>
-      <c r="E128" s="17"/>
+      <c r="E128" s="17">
+        <v>7</v>
+      </c>
       <c r="F128" s="18"/>
       <c r="G128" s="34" t="s">
         <v>88</v>
@@ -5642,6 +5801,12 @@
       <c r="O128" s="34" t="s">
         <v>91</v>
       </c>
+      <c r="P128" s="9">
+        <v>8</v>
+      </c>
+      <c r="Q128" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="129" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B129" s="34">
@@ -5653,7 +5818,9 @@
       <c r="D129" s="42">
         <v>8</v>
       </c>
-      <c r="E129" s="17"/>
+      <c r="E129" s="17">
+        <v>7</v>
+      </c>
       <c r="F129" s="18"/>
       <c r="G129" s="34" t="s">
         <v>88</v>
@@ -5682,6 +5849,12 @@
       <c r="O129" s="34" t="s">
         <v>92</v>
       </c>
+      <c r="P129" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q129" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="130" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B130" s="34">
@@ -5693,7 +5866,9 @@
       <c r="D130" s="42">
         <v>8</v>
       </c>
-      <c r="E130" s="17"/>
+      <c r="E130" s="17">
+        <v>7</v>
+      </c>
       <c r="F130" s="18"/>
       <c r="G130" s="34" t="s">
         <v>89</v>
@@ -5722,6 +5897,12 @@
       <c r="O130" s="34" t="s">
         <v>92</v>
       </c>
+      <c r="P130" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q130" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="131" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B131" s="34">
@@ -5733,7 +5914,9 @@
       <c r="D131" s="42">
         <v>8</v>
       </c>
-      <c r="E131" s="17"/>
+      <c r="E131" s="17">
+        <v>7</v>
+      </c>
       <c r="F131" s="18"/>
       <c r="G131" s="34" t="s">
         <v>88</v>
@@ -5762,6 +5945,12 @@
       <c r="O131" s="34" t="s">
         <v>92</v>
       </c>
+      <c r="P131" s="9">
+        <v>11</v>
+      </c>
+      <c r="Q131" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="132" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B132" s="34">
@@ -5773,7 +5962,9 @@
       <c r="D132" s="42">
         <v>8</v>
       </c>
-      <c r="E132" s="17"/>
+      <c r="E132" s="17">
+        <v>8</v>
+      </c>
       <c r="F132" s="18"/>
       <c r="G132" s="34" t="s">
         <v>88</v>
@@ -5802,6 +5993,12 @@
       <c r="O132" s="34" t="s">
         <v>92</v>
       </c>
+      <c r="P132" s="9">
+        <v>12</v>
+      </c>
+      <c r="Q132" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="133" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B133" s="34">
@@ -5813,7 +6010,9 @@
       <c r="D133" s="42">
         <v>8</v>
       </c>
-      <c r="E133" s="17"/>
+      <c r="E133" s="17">
+        <v>7</v>
+      </c>
       <c r="F133" s="18"/>
       <c r="G133" s="34" t="s">
         <v>88</v>
@@ -5842,6 +6041,12 @@
       <c r="O133" s="34" t="s">
         <v>89</v>
       </c>
+      <c r="P133" s="9">
+        <v>13</v>
+      </c>
+      <c r="Q133" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="134" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B134" s="34">
@@ -5853,7 +6058,9 @@
       <c r="D134" s="42">
         <v>8</v>
       </c>
-      <c r="E134" s="17"/>
+      <c r="E134" s="17">
+        <v>7</v>
+      </c>
       <c r="F134" s="18"/>
       <c r="G134" s="34" t="s">
         <v>88</v>
@@ -5882,6 +6089,12 @@
       <c r="O134" s="34" t="s">
         <v>89</v>
       </c>
+      <c r="P134" s="9">
+        <v>14</v>
+      </c>
+      <c r="Q134" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="135" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B135" s="34">
@@ -5893,7 +6106,9 @@
       <c r="D135" s="42">
         <v>8</v>
       </c>
-      <c r="E135" s="17"/>
+      <c r="E135" s="17">
+        <v>7</v>
+      </c>
       <c r="F135" s="18"/>
       <c r="G135" s="34" t="s">
         <v>92</v>
@@ -5922,6 +6137,12 @@
       <c r="O135" s="34" t="s">
         <v>92</v>
       </c>
+      <c r="P135" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q135" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="136" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B136" s="34">
@@ -5933,7 +6154,9 @@
       <c r="D136" s="42">
         <v>8</v>
       </c>
-      <c r="E136" s="17"/>
+      <c r="E136" s="17">
+        <v>7</v>
+      </c>
       <c r="F136" s="18"/>
       <c r="G136" s="34" t="s">
         <v>92</v>
@@ -5962,6 +6185,12 @@
       <c r="O136" s="34" t="s">
         <v>88</v>
       </c>
+      <c r="P136" s="9">
+        <v>16</v>
+      </c>
+      <c r="Q136" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="137" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B137" s="34">
@@ -5973,7 +6202,9 @@
       <c r="D137" s="42">
         <v>8</v>
       </c>
-      <c r="E137" s="17"/>
+      <c r="E137" s="17">
+        <v>7</v>
+      </c>
       <c r="F137" s="18"/>
       <c r="G137" s="34" t="s">
         <v>88</v>
@@ -6002,6 +6233,12 @@
       <c r="O137" s="34" t="s">
         <v>92</v>
       </c>
+      <c r="P137" s="9">
+        <v>17</v>
+      </c>
+      <c r="Q137" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="138" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B138" s="34">
@@ -6013,7 +6250,9 @@
       <c r="D138" s="42">
         <v>8</v>
       </c>
-      <c r="E138" s="17"/>
+      <c r="E138" s="17">
+        <v>7</v>
+      </c>
       <c r="F138" s="18"/>
       <c r="G138" s="34" t="s">
         <v>91</v>
@@ -6042,6 +6281,12 @@
       <c r="O138" s="34" t="s">
         <v>92</v>
       </c>
+      <c r="P138" s="9">
+        <v>18</v>
+      </c>
+      <c r="Q138" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="139" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B139" s="34">
@@ -6053,7 +6298,9 @@
       <c r="D139" s="42">
         <v>8</v>
       </c>
-      <c r="E139" s="17"/>
+      <c r="E139" s="17">
+        <v>6</v>
+      </c>
       <c r="F139" s="18"/>
       <c r="G139" s="34" t="s">
         <v>88</v>
@@ -6082,6 +6329,12 @@
       <c r="O139" s="34" t="s">
         <v>92</v>
       </c>
+      <c r="P139" s="9">
+        <v>19</v>
+      </c>
+      <c r="Q139" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="140" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B140" s="34">
@@ -6093,7 +6346,9 @@
       <c r="D140" s="42">
         <v>8</v>
       </c>
-      <c r="E140" s="17"/>
+      <c r="E140" s="17">
+        <v>6</v>
+      </c>
       <c r="F140" s="18"/>
       <c r="G140" s="34" t="s">
         <v>88</v>
@@ -6122,6 +6377,12 @@
       <c r="O140" s="34" t="s">
         <v>92</v>
       </c>
+      <c r="P140" s="9">
+        <v>20</v>
+      </c>
+      <c r="Q140" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="141" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B141" s="34">
@@ -6133,7 +6394,9 @@
       <c r="D141" s="42">
         <v>8</v>
       </c>
-      <c r="E141" s="17"/>
+      <c r="E141" s="17">
+        <v>6</v>
+      </c>
       <c r="F141" s="18"/>
       <c r="G141" s="34" t="s">
         <v>88</v>
@@ -6161,6 +6424,12 @@
       </c>
       <c r="O141" s="34" t="s">
         <v>92</v>
+      </c>
+      <c r="P141" s="9">
+        <v>21</v>
+      </c>
+      <c r="Q141" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:27" s="9" customFormat="1" ht="15" customHeight="1">
@@ -6173,6 +6442,12 @@
       <c r="H142" s="51"/>
       <c r="I142" s="51"/>
       <c r="J142" s="52"/>
+      <c r="P142" s="9">
+        <v>22</v>
+      </c>
+      <c r="Q142" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="143" spans="1:27" s="45" customFormat="1" ht="23.4">
       <c r="A143" s="1"/>
@@ -6185,7 +6460,7 @@
       <c r="D143" s="44"/>
       <c r="E143" s="17" t="str">
         <f>IF(ISERROR(E122),"",E122)&amp;";"&amp;IF(ISERROR(E123),"",E123)&amp;";"&amp;IF(ISERROR(E124),"",E124)&amp;";"&amp;IF(ISERROR(E125),"",E125)&amp;";"&amp;IF(ISERROR(E126),"",E126)&amp;";"&amp;IF(ISERROR(E127),"",E127)&amp;";"&amp;IF(ISERROR(E128),"",E128)&amp;";"&amp;IF(ISERROR(E129),"",E129)&amp;";"&amp;IF(ISERROR(E130),"",E130)&amp;";"&amp;IF(ISERROR(E131),"",E131)&amp;";"&amp;IF(ISERROR(E132),"",E132)&amp;";"&amp;IF(ISERROR(E133),"",E133)&amp;";"&amp;IF(ISERROR(E134),"",E134)&amp;";"&amp;IF(ISERROR(E135),"",E135)&amp;";"&amp;IF(ISERROR(E136),"",E136)&amp;";"&amp;IF(ISERROR(E137),"",E137)&amp;";"&amp;IF(ISERROR(E138),"",E138)&amp;";"&amp;IF(ISERROR(E139),"",E139)&amp;";"&amp;IF(ISERROR(E140),"",E140)&amp;";"&amp;IF(ISERROR(E141),"",E141)</f>
-        <v>;;;;;;;;;;;;;;;;;;;</v>
+        <v>6;7;7;5;7;6;7;7;7;7;8;7;7;7;7;7;7;6;6;6</v>
       </c>
       <c r="F143" s="18"/>
       <c r="G143" s="1"/>
@@ -9021,7 +9296,7 @@
       <c r="E3" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="134" t="s">
+      <c r="F3" s="68" t="s">
         <v>70</v>
       </c>
     </row>
@@ -9041,7 +9316,7 @@
       <c r="E4" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="134" t="s">
+      <c r="F4" s="68" t="s">
         <v>68</v>
       </c>
     </row>
@@ -9061,7 +9336,7 @@
       <c r="E5" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="134" t="s">
+      <c r="F5" s="68" t="s">
         <v>65</v>
       </c>
     </row>
@@ -9081,7 +9356,7 @@
       <c r="E6" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="134" t="s">
+      <c r="F6" s="68" t="s">
         <v>61</v>
       </c>
     </row>
@@ -9101,7 +9376,7 @@
       <c r="E7" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="134" t="s">
+      <c r="F7" s="68" t="s">
         <v>70</v>
       </c>
     </row>
@@ -9121,7 +9396,7 @@
       <c r="E8" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="134" t="s">
+      <c r="F8" s="68" t="s">
         <v>61</v>
       </c>
       <c r="L8" s="60" t="str" cm="1">
@@ -9149,7 +9424,7 @@
       <c r="E9" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="134" t="s">
+      <c r="F9" s="68" t="s">
         <v>68</v>
       </c>
       <c r="L9" s="60" t="str">
@@ -9176,7 +9451,7 @@
       <c r="E10" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="134" t="s">
+      <c r="F10" s="68" t="s">
         <v>70</v>
       </c>
       <c r="L10" s="60" t="str">
@@ -9203,7 +9478,7 @@
       <c r="E11" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="134" t="s">
+      <c r="F11" s="68" t="s">
         <v>65</v>
       </c>
       <c r="L11" s="60" t="str">
@@ -9230,7 +9505,7 @@
       <c r="E12" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="134" t="s">
+      <c r="F12" s="68" t="s">
         <v>70</v>
       </c>
       <c r="L12" s="60" t="str">
@@ -9257,7 +9532,7 @@
       <c r="E13" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="134" t="s">
+      <c r="F13" s="68" t="s">
         <v>68</v>
       </c>
       <c r="L13" s="60" t="str">
@@ -9284,7 +9559,7 @@
       <c r="E14" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="134" t="s">
+      <c r="F14" s="68" t="s">
         <v>65</v>
       </c>
       <c r="L14" s="60" t="str">
@@ -9311,7 +9586,7 @@
       <c r="E15" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="134" t="s">
+      <c r="F15" s="68" t="s">
         <v>61</v>
       </c>
       <c r="L15" s="60" t="str">
@@ -9338,7 +9613,7 @@
       <c r="E16" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="134" t="s">
+      <c r="F16" s="68" t="s">
         <v>65</v>
       </c>
       <c r="L16" s="60" t="str">
@@ -9365,7 +9640,7 @@
       <c r="E17" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="134" t="s">
+      <c r="F17" s="68" t="s">
         <v>70</v>
       </c>
       <c r="L17" s="60" t="str">
@@ -9392,7 +9667,7 @@
       <c r="E18" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="134" t="s">
+      <c r="F18" s="68" t="s">
         <v>68</v>
       </c>
       <c r="L18" s="60" t="str">
@@ -9419,7 +9694,7 @@
       <c r="E19" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="134" t="s">
+      <c r="F19" s="68" t="s">
         <v>68</v>
       </c>
       <c r="L19" s="60" t="str">
@@ -9446,7 +9721,7 @@
       <c r="E20" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="134" t="s">
+      <c r="F20" s="68" t="s">
         <v>70</v>
       </c>
       <c r="L20" s="60" t="str">
@@ -9473,7 +9748,7 @@
       <c r="E21" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="134" t="s">
+      <c r="F21" s="68" t="s">
         <v>61</v>
       </c>
       <c r="L21" s="60" t="str">
@@ -9500,7 +9775,7 @@
       <c r="E22" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="134" t="s">
+      <c r="F22" s="68" t="s">
         <v>65</v>
       </c>
       <c r="L22" s="60" t="str">
@@ -9527,7 +9802,7 @@
       <c r="E23" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="134" t="s">
+      <c r="F23" s="68" t="s">
         <v>68</v>
       </c>
       <c r="L23" s="60" t="str">
@@ -9554,7 +9829,7 @@
       <c r="E24" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="134" t="s">
+      <c r="F24" s="68" t="s">
         <v>61</v>
       </c>
       <c r="L24" s="60" t="str">
@@ -9581,7 +9856,7 @@
       <c r="E25" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="134" t="s">
+      <c r="F25" s="68" t="s">
         <v>65</v>
       </c>
       <c r="L25" s="60" t="str">
@@ -9608,7 +9883,7 @@
       <c r="E26" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="134" t="s">
+      <c r="F26" s="68" t="s">
         <v>70</v>
       </c>
       <c r="L26" s="60" t="str">
@@ -9635,7 +9910,7 @@
       <c r="E27" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="134" t="s">
+      <c r="F27" s="68" t="s">
         <v>61</v>
       </c>
       <c r="L27" s="60" t="str">
@@ -9662,7 +9937,7 @@
       <c r="E28" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="134" t="s">
+      <c r="F28" s="68" t="s">
         <v>68</v>
       </c>
       <c r="L28" s="60" t="str">
@@ -9689,7 +9964,7 @@
       <c r="E29" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="134" t="s">
+      <c r="F29" s="68" t="s">
         <v>61</v>
       </c>
       <c r="L29" s="60" t="str">
@@ -9716,7 +9991,7 @@
       <c r="E30" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="134" t="s">
+      <c r="F30" s="68" t="s">
         <v>65</v>
       </c>
       <c r="L30" s="60" t="str">
@@ -9743,7 +10018,7 @@
       <c r="E31" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="134" t="s">
+      <c r="F31" s="68" t="s">
         <v>65</v>
       </c>
       <c r="L31" s="60" t="str">
@@ -9758,19 +10033,19 @@
       <c r="A32" s="70">
         <v>30</v>
       </c>
-      <c r="B32" s="135" t="s">
+      <c r="B32" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="C32" s="136" t="s">
+      <c r="C32" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="136" t="s">
+      <c r="D32" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="134" t="s">
+      <c r="E32" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="134" t="s">
+      <c r="F32" s="68" t="s">
         <v>68</v>
       </c>
       <c r="L32" s="60" t="str">
@@ -11494,8 +11769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70917FC3-769F-435F-8690-BAAFBE50C006}">
   <dimension ref="A1:AA277"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView tabSelected="1" topLeftCell="B95" workbookViewId="0">
+      <selection activeCell="G122" sqref="G122:O122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8984375" defaultRowHeight="14.4"/>
@@ -11888,7 +12163,7 @@
       <c r="F26" s="18"/>
       <c r="L26" s="128" cm="1">
         <f t="array" ref="L26">SUMPRODUCT(--(F17:F275=1),D17:D275)</f>
-        <v>194</v>
+        <v>354</v>
       </c>
       <c r="M26" s="129"/>
     </row>
@@ -13974,7 +14249,7 @@
       </c>
       <c r="F122" s="18">
         <f>IF(ISBLANK(Case!E122), 0, IF(E122=Case!E122, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" s="34" t="s">
         <v>88</v>
@@ -14019,7 +14294,7 @@
       </c>
       <c r="F123" s="18">
         <f>IF(ISBLANK(Case!E123), 0, IF(E123=Case!E123, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" s="34" t="s">
         <v>88</v>
@@ -14064,7 +14339,7 @@
       </c>
       <c r="F124" s="18">
         <f>IF(ISBLANK(Case!E124), 0, IF(E124=Case!E124, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" s="34" t="s">
         <v>90</v>
@@ -14109,7 +14384,7 @@
       </c>
       <c r="F125" s="18">
         <f>IF(ISBLANK(Case!E125), 0, IF(E125=Case!E125, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" s="34" t="s">
         <v>88</v>
@@ -14154,7 +14429,7 @@
       </c>
       <c r="F126" s="18">
         <f>IF(ISBLANK(Case!E126), 0, IF(E126=Case!E126, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" s="34" t="s">
         <v>91</v>
@@ -14199,7 +14474,7 @@
       </c>
       <c r="F127" s="18">
         <f>IF(ISBLANK(Case!E127), 0, IF(E127=Case!E127, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" s="34" t="s">
         <v>88</v>
@@ -14244,7 +14519,7 @@
       </c>
       <c r="F128" s="18">
         <f>IF(ISBLANK(Case!E128), 0, IF(E128=Case!E128, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="34" t="s">
         <v>88</v>
@@ -14289,7 +14564,7 @@
       </c>
       <c r="F129" s="18">
         <f>IF(ISBLANK(Case!E129), 0, IF(E129=Case!E129, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="34" t="s">
         <v>88</v>
@@ -14334,7 +14609,7 @@
       </c>
       <c r="F130" s="18">
         <f>IF(ISBLANK(Case!E130), 0, IF(E130=Case!E130, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130" s="34" t="s">
         <v>89</v>
@@ -14379,7 +14654,7 @@
       </c>
       <c r="F131" s="18">
         <f>IF(ISBLANK(Case!E131), 0, IF(E131=Case!E131, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" s="34" t="s">
         <v>88</v>
@@ -14424,7 +14699,7 @@
       </c>
       <c r="F132" s="18">
         <f>IF(ISBLANK(Case!E132), 0, IF(E132=Case!E132, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132" s="34" t="s">
         <v>88</v>
@@ -14469,7 +14744,7 @@
       </c>
       <c r="F133" s="18">
         <f>IF(ISBLANK(Case!E133), 0, IF(E133=Case!E133, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133" s="34" t="s">
         <v>88</v>
@@ -14514,7 +14789,7 @@
       </c>
       <c r="F134" s="18">
         <f>IF(ISBLANK(Case!E134), 0, IF(E134=Case!E134, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134" s="34" t="s">
         <v>88</v>
@@ -14559,7 +14834,7 @@
       </c>
       <c r="F135" s="18">
         <f>IF(ISBLANK(Case!E135), 0, IF(E135=Case!E135, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135" s="34" t="s">
         <v>92</v>
@@ -14604,7 +14879,7 @@
       </c>
       <c r="F136" s="18">
         <f>IF(ISBLANK(Case!E136), 0, IF(E136=Case!E136, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G136" s="34" t="s">
         <v>92</v>
@@ -14649,7 +14924,7 @@
       </c>
       <c r="F137" s="18">
         <f>IF(ISBLANK(Case!E137), 0, IF(E137=Case!E137, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137" s="34" t="s">
         <v>88</v>
@@ -14694,7 +14969,7 @@
       </c>
       <c r="F138" s="18">
         <f>IF(ISBLANK(Case!E138), 0, IF(E138=Case!E138, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138" s="34" t="s">
         <v>91</v>
@@ -14739,7 +15014,7 @@
       </c>
       <c r="F139" s="18">
         <f>IF(ISBLANK(Case!E139), 0, IF(E139=Case!E139, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139" s="34" t="s">
         <v>88</v>
@@ -14784,7 +15059,7 @@
       </c>
       <c r="F140" s="18">
         <f>IF(ISBLANK(Case!E140), 0, IF(E140=Case!E140, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140" s="34" t="s">
         <v>88</v>
@@ -14829,7 +15104,7 @@
       </c>
       <c r="F141" s="18">
         <f>IF(ISBLANK(Case!E141), 0, IF(E141=Case!E141, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141" s="34" t="s">
         <v>88</v>

--- a/2025 Excel Esports Chile - The Grand Excel Fair (Juan Jose Cifuentes) - Case and Answers.xlsx
+++ b/2025 Excel Esports Chile - The Grand Excel Fair (Juan Jose Cifuentes) - Case and Answers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E70286-FE9B-4DA7-8DAD-4D03AA6F384B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F45384C-1AE2-4849-8977-EA3FB83C2D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{7AACD38C-9D70-42DF-BFBB-A00DA8F337DD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7AACD38C-9D70-42DF-BFBB-A00DA8F337DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,13 @@
     <sheet name="Answers" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_c">Case!$K$165</definedName>
+    <definedName name="_n">Case!$K$168</definedName>
+    <definedName name="_nRise">Case!$K$167</definedName>
     <definedName name="_nT">Cueca!$A$2</definedName>
+    <definedName name="_s">Case!$K$164</definedName>
+    <definedName name="_tc">Case!$K$165</definedName>
+    <definedName name="_tf">Case!$K$166</definedName>
     <definedName name="_tFoodCart">Table1[#All]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -68,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="272">
   <si>
     <t>Juan José Cifuentes</t>
   </si>
@@ -853,6 +859,39 @@
   </si>
   <si>
     <t>This level has 2 valid answers</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>cycle</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>Distance Short</t>
+  </si>
+  <si>
+    <t>Rise</t>
+  </si>
+  <si>
+    <t>Time Increment</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Cycles</t>
+  </si>
+  <si>
+    <t>Partial Cycle</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -1765,17 +1804,8 @@
     <xf numFmtId="0" fontId="32" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1785,15 +1815,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1809,6 +1830,24 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2316,6 +2355,116 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>160021</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>284853</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>281940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D079DB56-D9F4-4715-8D84-AD2A3D4D43EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4709161" y="47061120"/>
+          <a:ext cx="1808852" cy="5791200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>327660</xdr:colOff>
+          <xdr:row>163</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>274320</xdr:colOff>
+          <xdr:row>183</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Picture 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FE897A7-AF67-EB81-3AEE-64505615E3FA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$R$164:$R$183" spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6560820" y="47068740"/>
+              <a:ext cx="1219200" cy="5798820"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -2895,12 +3044,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3F176F-A8C4-40BF-9C17-F46AE37A4530}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3F176F-A8C4-40BF-9C17-F46AE37A4530}">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:AA277"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122:E141"/>
+    <sheetView tabSelected="1" topLeftCell="H158" workbookViewId="0">
+      <selection activeCell="O160" sqref="O160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8984375" defaultRowHeight="14.4"/>
@@ -2918,39 +3067,39 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" customHeight="1"/>
     <row r="2" spans="2:13" ht="59.25" customHeight="1">
-      <c r="B2" s="108" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="110"/>
+      <c r="B2" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="119"/>
     </row>
     <row r="3" spans="2:13" ht="15" customHeight="1"/>
     <row r="4" spans="2:13" ht="33" customHeight="1">
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="113"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="110"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="111" t="s">
+      <c r="L4" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="113"/>
+      <c r="M4" s="110"/>
     </row>
     <row r="5" spans="2:13" ht="196.2" customHeight="1">
       <c r="C5"/>
@@ -2960,10 +3109,10 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:13" ht="33" customHeight="1">
-      <c r="L6" s="111" t="s">
+      <c r="L6" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="113"/>
+      <c r="M6" s="110"/>
     </row>
     <row r="7" spans="2:13" ht="113.4" customHeight="1">
       <c r="K7" s="4"/>
@@ -2971,52 +3120,52 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
     </row>
     <row r="9" spans="2:13" ht="58.5" customHeight="1">
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
     </row>
     <row r="10" spans="2:13" ht="125.4" customHeight="1">
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1">
       <c r="B11" s="5"/>
@@ -3033,20 +3182,20 @@
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="113"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="110"/>
     </row>
     <row r="13" spans="2:13" ht="15" customHeight="1">
       <c r="B13" s="7"/>
@@ -3096,15 +3245,15 @@
         <v>12</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="118" t="s">
+      <c r="G16" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="120"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="114"/>
     </row>
     <row r="17" spans="2:13" ht="37.5" customHeight="1">
       <c r="B17" s="15" t="s">
@@ -3118,15 +3267,15 @@
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="121" t="s">
+      <c r="G17" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="121"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="121"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="121"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
     </row>
     <row r="18" spans="2:13" ht="37.5" customHeight="1">
       <c r="B18" s="15" t="s">
@@ -3140,15 +3289,15 @@
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="116" t="s">
+      <c r="G18" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="116"/>
-      <c r="M18" s="116"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
     </row>
     <row r="19" spans="2:13" ht="37.5" customHeight="1">
       <c r="B19" s="15" t="s">
@@ -3162,15 +3311,15 @@
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="116" t="s">
+      <c r="G19" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="107"/>
     </row>
     <row r="20" spans="2:13" ht="37.5" customHeight="1">
       <c r="B20" s="15" t="s">
@@ -3184,15 +3333,15 @@
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="116" t="s">
+      <c r="G20" s="107" t="s">
         <v>249</v>
       </c>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="116"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
     </row>
     <row r="21" spans="2:13" ht="37.5" customHeight="1">
       <c r="B21" s="15" t="s">
@@ -3206,34 +3355,34 @@
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="116" t="s">
+      <c r="G21" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="116"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1">
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="2:13" ht="23.4">
-      <c r="B23" s="111" t="s">
+      <c r="B23" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="112"/>
-      <c r="M23" s="113"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="109"/>
+      <c r="L23" s="109"/>
+      <c r="M23" s="110"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" thickBot="1">
       <c r="B24" s="22"/>
@@ -6704,7 +6853,10 @@
       <c r="H159" s="51"/>
       <c r="I159" s="51"/>
       <c r="K159" s="51"/>
-      <c r="L159" s="51"/>
+      <c r="L159" s="51">
+        <f>4.4/0.9</f>
+        <v>4.8888888888888893</v>
+      </c>
       <c r="M159" s="51"/>
     </row>
     <row r="160" spans="2:13" s="9" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
@@ -6735,14 +6887,26 @@
       <c r="L160" s="51"/>
       <c r="M160" s="51"/>
     </row>
-    <row r="161" spans="2:13" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="161" spans="2:18" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="F161" s="18"/>
       <c r="J161" s="52"/>
       <c r="K161" s="51"/>
       <c r="L161" s="51"/>
       <c r="M161" s="51"/>
-    </row>
-    <row r="162" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="O161" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="P161" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q161" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="R161" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="162" spans="2:18" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B162" s="33" t="s">
         <v>106</v>
       </c>
@@ -6765,17 +6929,61 @@
       <c r="I162" s="34">
         <v>2</v>
       </c>
-      <c r="J162" s="52"/>
+      <c r="J162" s="52">
+        <v>9</v>
+      </c>
       <c r="M162" s="51"/>
-    </row>
-    <row r="163" spans="2:13" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="O162" s="9">
+        <f>(H162-1)*G162</f>
+        <v>4.5</v>
+      </c>
+      <c r="P162" s="9">
+        <f>ROUNDUP((10-O162)/(O162-I162),0)</f>
+        <v>3</v>
+      </c>
+      <c r="Q162" s="9">
+        <f>ROUNDUP((10-P162*(O162-I162))/G162,0)</f>
+        <v>3</v>
+      </c>
+      <c r="R162" s="9">
+        <f>Q162+P162*H162</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="163" spans="2:18" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="F163" s="18"/>
-      <c r="G163" s="41"/>
-      <c r="H163" s="41"/>
-      <c r="I163" s="41"/>
+      <c r="G163" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="H163" s="34">
+        <v>6</v>
+      </c>
+      <c r="I163" s="34">
+        <v>2</v>
+      </c>
       <c r="J163" s="52"/>
-    </row>
-    <row r="164" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="M163" s="9">
+        <f>ROUNDUP(K172,0)</f>
+        <v>28</v>
+      </c>
+      <c r="O163" s="9">
+        <f t="shared" ref="O163:O183" si="0">(H163-1)*G163</f>
+        <v>4.5</v>
+      </c>
+      <c r="P163" s="9">
+        <f t="shared" ref="P163:P183" si="1">ROUNDUP((10-O163)/(O163-I163),0)</f>
+        <v>3</v>
+      </c>
+      <c r="Q163" s="9">
+        <f t="shared" ref="Q163:Q183" si="2">ROUNDUP((10-P163*(O163-I163))/G163,0)</f>
+        <v>3</v>
+      </c>
+      <c r="R163" s="9">
+        <f t="shared" ref="R163:R183" si="3">Q163+P163*H163</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="164" spans="2:18" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B164" s="34">
         <v>61</v>
       </c>
@@ -6785,7 +6993,9 @@
       <c r="D164" s="42">
         <v>10</v>
       </c>
-      <c r="E164" s="17"/>
+      <c r="E164" s="17">
+        <v>33</v>
+      </c>
       <c r="F164" s="18"/>
       <c r="G164" s="34">
         <v>0.9</v>
@@ -6796,10 +7006,40 @@
       <c r="I164" s="34">
         <v>4</v>
       </c>
-      <c r="J164" s="52"/>
-      <c r="M164" s="51"/>
-    </row>
-    <row r="165" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="J164" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="K164" s="9" cm="1">
+        <f t="array" ref="K164">INDEX($G$162:$I$183,$J$162,1)</f>
+        <v>0.6</v>
+      </c>
+      <c r="L164" s="9" cm="1">
+        <f t="array" ref="L164:L183">_xlfn.SEQUENCE(20,1,3)</f>
+        <v>3</v>
+      </c>
+      <c r="M164" s="9">
+        <f t="dataTable" ref="M164:M183" dt2D="0" dtr="0" r1="J162"/>
+        <v>33</v>
+      </c>
+      <c r="N164" s="51"/>
+      <c r="O164" s="9">
+        <f t="shared" si="0"/>
+        <v>5.4</v>
+      </c>
+      <c r="P164" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q164" s="9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="R164" s="9">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="165" spans="2:18" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B165" s="34">
         <v>62</v>
       </c>
@@ -6809,7 +7049,9 @@
       <c r="D165" s="42">
         <v>10</v>
       </c>
-      <c r="E165" s="17"/>
+      <c r="E165" s="17">
+        <v>19</v>
+      </c>
       <c r="F165" s="18"/>
       <c r="G165" s="34">
         <v>1</v>
@@ -6820,10 +7062,37 @@
       <c r="I165" s="34">
         <v>2</v>
       </c>
-      <c r="J165" s="52"/>
-      <c r="M165" s="51"/>
-    </row>
-    <row r="166" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="J165" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="K165" s="9" cm="1">
+        <f t="array" ref="K165">INDEX($G$162:$I$183,$J$162,2)</f>
+        <v>6</v>
+      </c>
+      <c r="L165" s="9">
+        <v>4</v>
+      </c>
+      <c r="M165" s="9">
+        <v>19</v>
+      </c>
+      <c r="O165" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P165" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Q165" s="9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="R165" s="9">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="166" spans="2:18" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B166" s="34">
         <v>63</v>
       </c>
@@ -6833,7 +7102,9 @@
       <c r="D166" s="42">
         <v>10</v>
       </c>
-      <c r="E166" s="17"/>
+      <c r="E166" s="17">
+        <v>41</v>
+      </c>
       <c r="F166" s="18"/>
       <c r="G166" s="34">
         <v>0.8</v>
@@ -6844,10 +7115,37 @@
       <c r="I166" s="34">
         <v>3</v>
       </c>
-      <c r="J166" s="52"/>
-      <c r="M166" s="51"/>
-    </row>
-    <row r="167" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="J166" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="K166" s="9" cm="1">
+        <f t="array" ref="K166">INDEX($G$162:$I$183,$J$162,3)</f>
+        <v>1</v>
+      </c>
+      <c r="L166" s="9">
+        <v>5</v>
+      </c>
+      <c r="M166" s="51">
+        <v>41</v>
+      </c>
+      <c r="O166" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P166" s="9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q166" s="9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="R166" s="9">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="167" spans="2:18" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B167" s="34">
         <v>64</v>
       </c>
@@ -6857,7 +7155,9 @@
       <c r="D167" s="42">
         <v>10</v>
       </c>
-      <c r="E167" s="17"/>
+      <c r="E167" s="17">
+        <v>35</v>
+      </c>
       <c r="F167" s="18"/>
       <c r="G167" s="34">
         <v>1</v>
@@ -6868,10 +7168,37 @@
       <c r="I167" s="34">
         <v>4</v>
       </c>
-      <c r="J167" s="52"/>
-      <c r="M167" s="51"/>
-    </row>
-    <row r="168" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="J167" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="K167" s="9">
+        <f>(_c-1)*_s</f>
+        <v>3</v>
+      </c>
+      <c r="L167" s="9">
+        <v>6</v>
+      </c>
+      <c r="M167" s="51">
+        <v>35</v>
+      </c>
+      <c r="O167" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P167" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q167" s="9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="R167" s="9">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="168" spans="2:18" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B168" s="34">
         <v>65</v>
       </c>
@@ -6881,7 +7208,9 @@
       <c r="D168" s="42">
         <v>10</v>
       </c>
-      <c r="E168" s="17"/>
+      <c r="E168" s="17">
+        <v>44</v>
+      </c>
       <c r="F168" s="18"/>
       <c r="G168" s="34">
         <v>0.5</v>
@@ -6892,10 +7221,37 @@
       <c r="I168" s="34">
         <v>1</v>
       </c>
-      <c r="J168" s="52"/>
-      <c r="M168" s="51"/>
-    </row>
-    <row r="169" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="J168" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="K168" s="9">
+        <f>INT((10-_tf)/(_nRise-_tf))</f>
+        <v>4</v>
+      </c>
+      <c r="L168" s="9">
+        <v>7</v>
+      </c>
+      <c r="M168" s="51">
+        <v>44</v>
+      </c>
+      <c r="O168" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P168" s="9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="Q168" s="9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="R168" s="9">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="169" spans="2:18" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B169" s="34">
         <v>66</v>
       </c>
@@ -6905,7 +7261,9 @@
       <c r="D169" s="42">
         <v>10</v>
       </c>
-      <c r="E169" s="17"/>
+      <c r="E169" s="17">
+        <v>27</v>
+      </c>
       <c r="F169" s="18"/>
       <c r="G169" s="34">
         <v>0.8</v>
@@ -6916,10 +7274,37 @@
       <c r="I169" s="34">
         <v>3</v>
       </c>
-      <c r="J169" s="52"/>
-      <c r="M169" s="51"/>
-    </row>
-    <row r="170" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="J169" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="K169" s="9" t="b">
+        <f>(_n*_nRise-(_n-1)*_tf)=10</f>
+        <v>0</v>
+      </c>
+      <c r="L169" s="9">
+        <v>8</v>
+      </c>
+      <c r="M169" s="51">
+        <v>27</v>
+      </c>
+      <c r="O169" s="9">
+        <f t="shared" si="0"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="P169" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Q169" s="9">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="R169" s="9">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="170" spans="2:18" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B170" s="34">
         <v>67</v>
       </c>
@@ -6929,7 +7314,9 @@
       <c r="D170" s="42">
         <v>10</v>
       </c>
-      <c r="E170" s="17"/>
+      <c r="E170" s="17">
+        <v>28</v>
+      </c>
       <c r="F170" s="18"/>
       <c r="G170" s="34">
         <v>0.6</v>
@@ -6940,10 +7327,37 @@
       <c r="I170" s="34">
         <v>1</v>
       </c>
-      <c r="J170" s="52"/>
-      <c r="M170" s="51"/>
-    </row>
-    <row r="171" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="J170" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="K170" s="9">
+        <f>IF(K169,0,10-(_n*_nRise-(_n)*_tf))</f>
+        <v>2</v>
+      </c>
+      <c r="L170" s="9">
+        <v>9</v>
+      </c>
+      <c r="M170" s="51">
+        <v>28</v>
+      </c>
+      <c r="O170" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P170" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q170" s="9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="R170" s="9">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="171" spans="2:18" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B171" s="34">
         <v>68</v>
       </c>
@@ -6953,7 +7367,9 @@
       <c r="D171" s="42">
         <v>10</v>
       </c>
-      <c r="E171" s="17"/>
+      <c r="E171" s="17">
+        <v>26</v>
+      </c>
       <c r="F171" s="18"/>
       <c r="G171" s="34">
         <v>1</v>
@@ -6964,10 +7380,37 @@
       <c r="I171" s="34">
         <v>1</v>
       </c>
-      <c r="J171" s="52"/>
-      <c r="M171" s="51"/>
-    </row>
-    <row r="172" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="J171" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="K171" s="9">
+        <f>K170/_s</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="L171" s="9">
+        <v>10</v>
+      </c>
+      <c r="M171" s="51">
+        <v>26</v>
+      </c>
+      <c r="O171" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P171" s="9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="Q171" s="9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R171" s="9">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="172" spans="2:18" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B172" s="34">
         <v>69</v>
       </c>
@@ -6977,7 +7420,9 @@
       <c r="D172" s="42">
         <v>10</v>
       </c>
-      <c r="E172" s="17"/>
+      <c r="E172" s="17">
+        <v>31</v>
+      </c>
       <c r="F172" s="18"/>
       <c r="G172" s="34">
         <v>1</v>
@@ -6988,10 +7433,37 @@
       <c r="I172" s="34">
         <v>2</v>
       </c>
-      <c r="J172" s="52"/>
-      <c r="M172" s="51"/>
-    </row>
-    <row r="173" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="J172" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="K172" s="9">
+        <f>IF(K169,K171+_n*_c-1,_n*_c+K171)</f>
+        <v>27.333333333333332</v>
+      </c>
+      <c r="L172" s="9">
+        <v>11</v>
+      </c>
+      <c r="M172" s="51">
+        <v>31</v>
+      </c>
+      <c r="O172" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P172" s="9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Q172" s="9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R172" s="9">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="173" spans="2:18" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B173" s="34">
         <v>70</v>
       </c>
@@ -7001,7 +7473,9 @@
       <c r="D173" s="42">
         <v>10</v>
       </c>
-      <c r="E173" s="17"/>
+      <c r="E173" s="17">
+        <v>34</v>
+      </c>
       <c r="F173" s="18"/>
       <c r="G173" s="34">
         <v>0.6</v>
@@ -7013,9 +7487,30 @@
         <v>2</v>
       </c>
       <c r="J173" s="52"/>
-      <c r="M173" s="51"/>
-    </row>
-    <row r="174" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="L173" s="9">
+        <v>12</v>
+      </c>
+      <c r="M173" s="51">
+        <v>34</v>
+      </c>
+      <c r="O173" s="9">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="P173" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q173" s="9">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="R173" s="9">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="174" spans="2:18" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B174" s="34">
         <v>71</v>
       </c>
@@ -7025,7 +7520,9 @@
       <c r="D174" s="42">
         <v>10</v>
       </c>
-      <c r="E174" s="17"/>
+      <c r="E174" s="17">
+        <v>34</v>
+      </c>
       <c r="F174" s="18"/>
       <c r="G174" s="34">
         <v>1</v>
@@ -7037,9 +7534,30 @@
         <v>3</v>
       </c>
       <c r="J174" s="52"/>
-      <c r="M174" s="51"/>
-    </row>
-    <row r="175" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="L174" s="9">
+        <v>13</v>
+      </c>
+      <c r="M174" s="51">
+        <v>34</v>
+      </c>
+      <c r="O174" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P174" s="9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q174" s="9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="R174" s="9">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="175" spans="2:18" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B175" s="34">
         <v>72</v>
       </c>
@@ -7049,7 +7567,9 @@
       <c r="D175" s="42">
         <v>10</v>
       </c>
-      <c r="E175" s="17"/>
+      <c r="E175" s="17">
+        <v>34</v>
+      </c>
       <c r="F175" s="18"/>
       <c r="G175" s="34">
         <v>0.8</v>
@@ -7061,9 +7581,30 @@
         <v>2</v>
       </c>
       <c r="J175" s="52"/>
-      <c r="M175" s="51"/>
-    </row>
-    <row r="176" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="L175" s="9">
+        <v>14</v>
+      </c>
+      <c r="M175" s="51">
+        <v>34</v>
+      </c>
+      <c r="O175" s="9">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="P175" s="9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q175" s="9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="R175" s="9">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="176" spans="2:18" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B176" s="34">
         <v>73</v>
       </c>
@@ -7073,7 +7614,9 @@
       <c r="D176" s="42">
         <v>10</v>
       </c>
-      <c r="E176" s="17"/>
+      <c r="E176" s="17">
+        <v>41</v>
+      </c>
       <c r="F176" s="18"/>
       <c r="G176" s="34">
         <v>0.7</v>
@@ -7085,7 +7628,28 @@
         <v>3</v>
       </c>
       <c r="J176" s="52"/>
-      <c r="M176" s="51"/>
+      <c r="L176" s="9">
+        <v>15</v>
+      </c>
+      <c r="M176" s="51">
+        <v>41</v>
+      </c>
+      <c r="O176" s="9">
+        <f t="shared" si="0"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="P176" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q176" s="9">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="R176" s="9">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="177" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B177" s="34">
@@ -7097,7 +7661,9 @@
       <c r="D177" s="42">
         <v>10</v>
       </c>
-      <c r="E177" s="17"/>
+      <c r="E177" s="17">
+        <v>29</v>
+      </c>
       <c r="F177" s="18"/>
       <c r="G177" s="34">
         <v>0.9</v>
@@ -7109,7 +7675,28 @@
         <v>3</v>
       </c>
       <c r="J177" s="52"/>
-      <c r="M177" s="51"/>
+      <c r="L177" s="9">
+        <v>16</v>
+      </c>
+      <c r="M177" s="51">
+        <v>29</v>
+      </c>
+      <c r="O177" s="9">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="P177" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q177" s="9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="R177" s="9">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="178" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B178" s="34">
@@ -7121,7 +7708,9 @@
       <c r="D178" s="42">
         <v>10</v>
       </c>
-      <c r="E178" s="17"/>
+      <c r="E178" s="17">
+        <v>35</v>
+      </c>
       <c r="F178" s="18"/>
       <c r="G178" s="34">
         <v>0.5</v>
@@ -7133,7 +7722,28 @@
         <v>1</v>
       </c>
       <c r="J178" s="52"/>
-      <c r="M178" s="51"/>
+      <c r="L178" s="9">
+        <v>17</v>
+      </c>
+      <c r="M178" s="51">
+        <v>35</v>
+      </c>
+      <c r="O178" s="9">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="P178" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q178" s="9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="R178" s="9">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="179" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B179" s="34">
@@ -7145,7 +7755,9 @@
       <c r="D179" s="42">
         <v>10</v>
       </c>
-      <c r="E179" s="17"/>
+      <c r="E179" s="17">
+        <v>31</v>
+      </c>
       <c r="F179" s="18"/>
       <c r="G179" s="34">
         <v>0.8</v>
@@ -7157,7 +7769,28 @@
         <v>4</v>
       </c>
       <c r="J179" s="52"/>
-      <c r="M179" s="51"/>
+      <c r="L179" s="9">
+        <v>18</v>
+      </c>
+      <c r="M179" s="51">
+        <v>31</v>
+      </c>
+      <c r="O179" s="9">
+        <f t="shared" si="0"/>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="P179" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Q179" s="9">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="R179" s="9">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="180" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B180" s="34">
@@ -7169,7 +7802,9 @@
       <c r="D180" s="42">
         <v>10</v>
       </c>
-      <c r="E180" s="17"/>
+      <c r="E180" s="17">
+        <v>22</v>
+      </c>
       <c r="F180" s="18"/>
       <c r="G180" s="34">
         <v>1</v>
@@ -7181,7 +7816,28 @@
         <v>3</v>
       </c>
       <c r="J180" s="52"/>
-      <c r="M180" s="51"/>
+      <c r="L180" s="9">
+        <v>19</v>
+      </c>
+      <c r="M180" s="51">
+        <v>22</v>
+      </c>
+      <c r="O180" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P180" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Q180" s="9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="R180" s="9">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="181" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B181" s="34">
@@ -7193,7 +7849,9 @@
       <c r="D181" s="42">
         <v>10</v>
       </c>
-      <c r="E181" s="17"/>
+      <c r="E181" s="17">
+        <v>34</v>
+      </c>
       <c r="F181" s="18"/>
       <c r="G181" s="34">
         <v>0.7</v>
@@ -7205,7 +7863,28 @@
         <v>1</v>
       </c>
       <c r="J181" s="52"/>
-      <c r="M181" s="51"/>
+      <c r="L181" s="9">
+        <v>20</v>
+      </c>
+      <c r="M181" s="51">
+        <v>34</v>
+      </c>
+      <c r="O181" s="9">
+        <f t="shared" si="0"/>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="P181" s="9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="Q181" s="9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R181" s="9">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
     </row>
     <row r="182" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B182" s="34">
@@ -7217,7 +7896,9 @@
       <c r="D182" s="42">
         <v>10</v>
       </c>
-      <c r="E182" s="17"/>
+      <c r="E182" s="17">
+        <v>47</v>
+      </c>
       <c r="F182" s="18"/>
       <c r="G182" s="34">
         <v>0.9</v>
@@ -7229,7 +7910,28 @@
         <v>2</v>
       </c>
       <c r="J182" s="52"/>
-      <c r="M182" s="51"/>
+      <c r="L182" s="9">
+        <v>21</v>
+      </c>
+      <c r="M182" s="51">
+        <v>47</v>
+      </c>
+      <c r="O182" s="9">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="P182" s="9">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="Q182" s="9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R182" s="9">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
     </row>
     <row r="183" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B183" s="34">
@@ -7241,7 +7943,9 @@
       <c r="D183" s="42">
         <v>10</v>
       </c>
-      <c r="E183" s="17"/>
+      <c r="E183" s="17">
+        <v>20</v>
+      </c>
       <c r="F183" s="18"/>
       <c r="G183" s="34">
         <v>0.9</v>
@@ -7253,7 +7957,28 @@
         <v>3</v>
       </c>
       <c r="J183" s="52"/>
-      <c r="M183" s="51"/>
+      <c r="L183" s="9">
+        <v>22</v>
+      </c>
+      <c r="M183" s="51">
+        <v>20</v>
+      </c>
+      <c r="O183" s="9">
+        <f t="shared" si="0"/>
+        <v>5.4</v>
+      </c>
+      <c r="P183" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q183" s="9">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="R183" s="9">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="184" spans="1:27" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="B184" s="51"/>
@@ -7280,7 +8005,7 @@
       <c r="D185" s="44"/>
       <c r="E185" s="17" t="str">
         <f>IF(ISERROR(E164),"",E164)&amp;";"&amp;IF(ISERROR(E165),"",E165)&amp;";"&amp;IF(ISERROR(E166),"",E166)&amp;";"&amp;IF(ISERROR(E167),"",E167)&amp;";"&amp;IF(ISERROR(E168),"",E168)&amp;";"&amp;IF(ISERROR(E169),"",E169)&amp;";"&amp;IF(ISERROR(E170),"",E170)&amp;";"&amp;IF(ISERROR(E171),"",E171)&amp;";"&amp;IF(ISERROR(E172),"",E172)&amp;";"&amp;IF(ISERROR(E173),"",E173)&amp;";"&amp;IF(ISERROR(E174),"",E174)&amp;";"&amp;IF(ISERROR(E175),"",E175)&amp;";"&amp;IF(ISERROR(E176),"",E176)&amp;";"&amp;IF(ISERROR(E177),"",E177)&amp;";"&amp;IF(ISERROR(E178),"",E178)&amp;";"&amp;IF(ISERROR(E179),"",E179)&amp;";"&amp;IF(ISERROR(E180),"",E180)&amp;";"&amp;IF(ISERROR(E181),"",E181)&amp;";"&amp;IF(ISERROR(E182),"",E182)&amp;";"&amp;IF(ISERROR(E183),"",E183)</f>
-        <v>;;;;;;;;;;;;;;;;;;;</v>
+        <v>33;19;41;35;44;27;28;26;31;34;34;34;41;29;35;31;22;34;47;20</v>
       </c>
       <c r="F185" s="18"/>
       <c r="G185" s="1"/>
@@ -8976,6 +9701,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B8:M8"/>
     <mergeCell ref="G20:M20"/>
     <mergeCell ref="G21:M21"/>
     <mergeCell ref="B23:M23"/>
@@ -8985,16 +9716,11 @@
     <mergeCell ref="G17:M17"/>
     <mergeCell ref="G18:M18"/>
     <mergeCell ref="G19:M19"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="B8:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -11769,8 +12495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70917FC3-769F-435F-8690-BAAFBE50C006}">
   <dimension ref="A1:AA277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B95" workbookViewId="0">
-      <selection activeCell="G122" sqref="G122:O122"/>
+    <sheetView topLeftCell="B156" workbookViewId="0">
+      <selection activeCell="H163" sqref="H163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8984375" defaultRowHeight="14.4"/>
@@ -11788,39 +12514,39 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" customHeight="1"/>
     <row r="2" spans="2:13" ht="59.25" customHeight="1">
-      <c r="B2" s="108" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="110"/>
+      <c r="B2" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="119"/>
     </row>
     <row r="3" spans="2:13" ht="15" customHeight="1"/>
     <row r="4" spans="2:13" ht="33" customHeight="1">
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="113"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="110"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="111" t="s">
+      <c r="L4" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="113"/>
+      <c r="M4" s="110"/>
     </row>
     <row r="5" spans="2:13" ht="196.2" customHeight="1">
       <c r="C5"/>
@@ -11830,10 +12556,10 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:13" ht="33" customHeight="1">
-      <c r="L6" s="111" t="s">
+      <c r="L6" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="113"/>
+      <c r="M6" s="110"/>
     </row>
     <row r="7" spans="2:13" ht="113.4" customHeight="1">
       <c r="K7" s="4"/>
@@ -11841,52 +12567,52 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
     </row>
     <row r="9" spans="2:13" ht="58.5" customHeight="1">
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
     </row>
     <row r="10" spans="2:13" ht="125.4" customHeight="1">
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1">
       <c r="B11" s="5"/>
@@ -11903,20 +12629,20 @@
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="113"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="110"/>
     </row>
     <row r="13" spans="2:13" ht="15" customHeight="1">
       <c r="B13" s="7"/>
@@ -11966,15 +12692,15 @@
         <v>12</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="118" t="s">
+      <c r="G16" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="120"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="114"/>
     </row>
     <row r="17" spans="2:13" ht="37.5" customHeight="1">
       <c r="B17" s="15" t="s">
@@ -11993,15 +12719,15 @@
         <f>IF(ISBLANK(Case!E17), 0, IF(E17=Case!E17, 1, -1))</f>
         <v>0</v>
       </c>
-      <c r="G17" s="121" t="s">
+      <c r="G17" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="121"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="121"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="121"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
     </row>
     <row r="18" spans="2:13" ht="37.5" customHeight="1">
       <c r="B18" s="15" t="s">
@@ -12020,15 +12746,15 @@
         <f>IF(ISBLANK(Case!E18), 0, IF(E18=Case!E18, 1, -1))</f>
         <v>0</v>
       </c>
-      <c r="G18" s="116" t="s">
+      <c r="G18" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="116"/>
-      <c r="M18" s="116"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
     </row>
     <row r="19" spans="2:13" ht="37.5" customHeight="1">
       <c r="B19" s="15" t="s">
@@ -12047,15 +12773,15 @@
         <f>IF(ISBLANK(Case!E19), 0, IF(E19=Case!E19, 1, -1))</f>
         <v>0</v>
       </c>
-      <c r="G19" s="116" t="s">
+      <c r="G19" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="107"/>
     </row>
     <row r="20" spans="2:13" ht="37.5" customHeight="1">
       <c r="B20" s="15" t="s">
@@ -12074,15 +12800,15 @@
         <f>IF(ISBLANK(Case!E20), 0, IF(E20=Case!E20, 1, -1))</f>
         <v>0</v>
       </c>
-      <c r="G20" s="116" t="s">
+      <c r="G20" s="107" t="s">
         <v>249</v>
       </c>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="116"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
     </row>
     <row r="21" spans="2:13" ht="37.5" customHeight="1">
       <c r="B21" s="15" t="s">
@@ -12101,34 +12827,34 @@
         <f>IF(ISBLANK(Case!E21), 0, IF(E21=Case!E21, 1, -1))</f>
         <v>0</v>
       </c>
-      <c r="G21" s="116" t="s">
+      <c r="G21" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="116"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1">
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="2:13" ht="23.4">
-      <c r="B23" s="111" t="s">
+      <c r="B23" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="112"/>
-      <c r="M23" s="113"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="109"/>
+      <c r="L23" s="109"/>
+      <c r="M23" s="110"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" thickBot="1">
       <c r="B24" s="22"/>
@@ -12163,7 +12889,7 @@
       <c r="F26" s="18"/>
       <c r="L26" s="128" cm="1">
         <f t="array" ref="L26">SUMPRODUCT(--(F17:F275=1),D17:D275)</f>
-        <v>354</v>
+        <v>560</v>
       </c>
       <c r="M26" s="129"/>
     </row>
@@ -13701,11 +14427,11 @@
         <v>6</v>
       </c>
       <c r="E94" s="49" t="s">
-        <v>129</v>
+        <v>247</v>
       </c>
       <c r="F94" s="18">
         <f>IF(ISBLANK(Case!E94), 0, IF(E94=Case!E94, 1, -1))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G94" s="37" t="s">
         <v>64</v>
@@ -15488,7 +16214,7 @@
       </c>
       <c r="F164" s="18">
         <f>IF(ISBLANK(Case!E164), 0, IF(E164=Case!E164, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G164" s="34">
         <v>0.9</v>
@@ -15517,7 +16243,7 @@
       </c>
       <c r="F165" s="18">
         <f>IF(ISBLANK(Case!E165), 0, IF(E165=Case!E165, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G165" s="34">
         <v>1</v>
@@ -15546,7 +16272,7 @@
       </c>
       <c r="F166" s="18">
         <f>IF(ISBLANK(Case!E166), 0, IF(E166=Case!E166, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166" s="34">
         <v>0.8</v>
@@ -15557,7 +16283,9 @@
       <c r="I166" s="34">
         <v>3</v>
       </c>
-      <c r="J166" s="52"/>
+      <c r="J166" s="9">
+        <v>33</v>
+      </c>
       <c r="M166" s="51"/>
     </row>
     <row r="167" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
@@ -15575,7 +16303,7 @@
       </c>
       <c r="F167" s="18">
         <f>IF(ISBLANK(Case!E167), 0, IF(E167=Case!E167, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G167" s="34">
         <v>1</v>
@@ -15586,7 +16314,9 @@
       <c r="I167" s="34">
         <v>4</v>
       </c>
-      <c r="J167" s="52"/>
+      <c r="J167" s="9">
+        <v>19</v>
+      </c>
       <c r="M167" s="51"/>
     </row>
     <row r="168" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
@@ -15604,7 +16334,7 @@
       </c>
       <c r="F168" s="18">
         <f>IF(ISBLANK(Case!E168), 0, IF(E168=Case!E168, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G168" s="34">
         <v>0.5</v>
@@ -15615,7 +16345,9 @@
       <c r="I168" s="34">
         <v>1</v>
       </c>
-      <c r="J168" s="52"/>
+      <c r="J168" s="51">
+        <v>41</v>
+      </c>
       <c r="M168" s="51"/>
     </row>
     <row r="169" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
@@ -15633,7 +16365,7 @@
       </c>
       <c r="F169" s="18">
         <f>IF(ISBLANK(Case!E169), 0, IF(E169=Case!E169, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G169" s="34">
         <v>0.8</v>
@@ -15644,7 +16376,9 @@
       <c r="I169" s="34">
         <v>3</v>
       </c>
-      <c r="J169" s="52"/>
+      <c r="J169" s="51">
+        <v>35</v>
+      </c>
       <c r="M169" s="51"/>
     </row>
     <row r="170" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
@@ -15662,7 +16396,7 @@
       </c>
       <c r="F170" s="18">
         <f>IF(ISBLANK(Case!E170), 0, IF(E170=Case!E170, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170" s="34">
         <v>0.6</v>
@@ -15673,7 +16407,9 @@
       <c r="I170" s="34">
         <v>1</v>
       </c>
-      <c r="J170" s="52"/>
+      <c r="J170" s="51">
+        <v>44</v>
+      </c>
       <c r="M170" s="51"/>
     </row>
     <row r="171" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
@@ -15691,7 +16427,7 @@
       </c>
       <c r="F171" s="18">
         <f>IF(ISBLANK(Case!E171), 0, IF(E171=Case!E171, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G171" s="34">
         <v>1</v>
@@ -15702,7 +16438,9 @@
       <c r="I171" s="34">
         <v>1</v>
       </c>
-      <c r="J171" s="52"/>
+      <c r="J171" s="51">
+        <v>27</v>
+      </c>
       <c r="M171" s="51"/>
     </row>
     <row r="172" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
@@ -15720,7 +16458,7 @@
       </c>
       <c r="F172" s="18">
         <f>IF(ISBLANK(Case!E172), 0, IF(E172=Case!E172, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G172" s="34">
         <v>1</v>
@@ -15731,7 +16469,9 @@
       <c r="I172" s="34">
         <v>2</v>
       </c>
-      <c r="J172" s="52"/>
+      <c r="J172" s="51">
+        <v>28</v>
+      </c>
       <c r="M172" s="51"/>
     </row>
     <row r="173" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
@@ -15749,7 +16489,7 @@
       </c>
       <c r="F173" s="18">
         <f>IF(ISBLANK(Case!E173), 0, IF(E173=Case!E173, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G173" s="34">
         <v>0.6</v>
@@ -15760,7 +16500,9 @@
       <c r="I173" s="34">
         <v>2</v>
       </c>
-      <c r="J173" s="52"/>
+      <c r="J173" s="51">
+        <v>26</v>
+      </c>
       <c r="M173" s="51"/>
     </row>
     <row r="174" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
@@ -15778,7 +16520,7 @@
       </c>
       <c r="F174" s="18">
         <f>IF(ISBLANK(Case!E174), 0, IF(E174=Case!E174, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G174" s="34">
         <v>1</v>
@@ -15789,7 +16531,9 @@
       <c r="I174" s="34">
         <v>3</v>
       </c>
-      <c r="J174" s="52"/>
+      <c r="J174" s="51">
+        <v>31</v>
+      </c>
       <c r="M174" s="51"/>
     </row>
     <row r="175" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
@@ -15807,7 +16551,7 @@
       </c>
       <c r="F175" s="18">
         <f>IF(ISBLANK(Case!E175), 0, IF(E175=Case!E175, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175" s="34">
         <v>0.8</v>
@@ -15818,7 +16562,9 @@
       <c r="I175" s="34">
         <v>2</v>
       </c>
-      <c r="J175" s="52"/>
+      <c r="J175" s="51">
+        <v>34</v>
+      </c>
       <c r="M175" s="51"/>
     </row>
     <row r="176" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
@@ -15836,7 +16582,7 @@
       </c>
       <c r="F176" s="18">
         <f>IF(ISBLANK(Case!E176), 0, IF(E176=Case!E176, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G176" s="34">
         <v>0.7</v>
@@ -15847,7 +16593,9 @@
       <c r="I176" s="34">
         <v>3</v>
       </c>
-      <c r="J176" s="52"/>
+      <c r="J176" s="51">
+        <v>34</v>
+      </c>
       <c r="M176" s="51"/>
     </row>
     <row r="177" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
@@ -15865,7 +16613,7 @@
       </c>
       <c r="F177" s="18">
         <f>IF(ISBLANK(Case!E177), 0, IF(E177=Case!E177, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177" s="34">
         <v>0.9</v>
@@ -15876,7 +16624,9 @@
       <c r="I177" s="34">
         <v>3</v>
       </c>
-      <c r="J177" s="52"/>
+      <c r="J177" s="51">
+        <v>34</v>
+      </c>
       <c r="M177" s="51"/>
     </row>
     <row r="178" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
@@ -15894,7 +16644,7 @@
       </c>
       <c r="F178" s="18">
         <f>IF(ISBLANK(Case!E178), 0, IF(E178=Case!E178, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G178" s="34">
         <v>0.5</v>
@@ -15905,7 +16655,9 @@
       <c r="I178" s="34">
         <v>1</v>
       </c>
-      <c r="J178" s="52"/>
+      <c r="J178" s="51">
+        <v>41</v>
+      </c>
       <c r="M178" s="51"/>
     </row>
     <row r="179" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
@@ -15923,7 +16675,7 @@
       </c>
       <c r="F179" s="18">
         <f>IF(ISBLANK(Case!E179), 0, IF(E179=Case!E179, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G179" s="34">
         <v>0.8</v>
@@ -15934,7 +16686,9 @@
       <c r="I179" s="34">
         <v>4</v>
       </c>
-      <c r="J179" s="52"/>
+      <c r="J179" s="51">
+        <v>29</v>
+      </c>
       <c r="M179" s="51"/>
     </row>
     <row r="180" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
@@ -15952,7 +16706,7 @@
       </c>
       <c r="F180" s="18">
         <f>IF(ISBLANK(Case!E180), 0, IF(E180=Case!E180, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G180" s="34">
         <v>1</v>
@@ -15963,7 +16717,9 @@
       <c r="I180" s="34">
         <v>3</v>
       </c>
-      <c r="J180" s="52"/>
+      <c r="J180" s="51">
+        <v>35</v>
+      </c>
       <c r="M180" s="51"/>
     </row>
     <row r="181" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
@@ -15981,7 +16737,7 @@
       </c>
       <c r="F181" s="18">
         <f>IF(ISBLANK(Case!E181), 0, IF(E181=Case!E181, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181" s="34">
         <v>0.7</v>
@@ -15992,7 +16748,9 @@
       <c r="I181" s="34">
         <v>1</v>
       </c>
-      <c r="J181" s="52"/>
+      <c r="J181" s="51">
+        <v>31</v>
+      </c>
       <c r="M181" s="51"/>
     </row>
     <row r="182" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
@@ -16010,7 +16768,7 @@
       </c>
       <c r="F182" s="18">
         <f>IF(ISBLANK(Case!E182), 0, IF(E182=Case!E182, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G182" s="34">
         <v>0.9</v>
@@ -16021,7 +16779,9 @@
       <c r="I182" s="34">
         <v>2</v>
       </c>
-      <c r="J182" s="52"/>
+      <c r="J182" s="51">
+        <v>22</v>
+      </c>
       <c r="M182" s="51"/>
     </row>
     <row r="183" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
@@ -16039,7 +16799,7 @@
       </c>
       <c r="F183" s="18">
         <f>IF(ISBLANK(Case!E183), 0, IF(E183=Case!E183, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G183" s="34">
         <v>0.9</v>
@@ -16050,7 +16810,9 @@
       <c r="I183" s="34">
         <v>3</v>
       </c>
-      <c r="J183" s="52"/>
+      <c r="J183" s="51">
+        <v>34</v>
+      </c>
       <c r="M183" s="51"/>
     </row>
     <row r="184" spans="1:27" s="9" customFormat="1" ht="15" customHeight="1">
@@ -16062,7 +16824,9 @@
       <c r="G184" s="51"/>
       <c r="H184" s="51"/>
       <c r="I184" s="51"/>
-      <c r="J184" s="52"/>
+      <c r="J184" s="51">
+        <v>47</v>
+      </c>
       <c r="K184" s="51"/>
       <c r="L184" s="51"/>
       <c r="M184" s="51"/>
@@ -16083,7 +16847,9 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
-      <c r="J185" s="1"/>
+      <c r="J185" s="51">
+        <v>20</v>
+      </c>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
       <c r="M185" s="1"/>
@@ -17977,6 +18743,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M28"/>
     <mergeCell ref="G19:M19"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B4:J4"/>
@@ -17989,11 +18760,6 @@
     <mergeCell ref="G16:M16"/>
     <mergeCell ref="G17:M17"/>
     <mergeCell ref="G18:M18"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2025 Excel Esports Chile - The Grand Excel Fair (Juan Jose Cifuentes) - Case and Answers.xlsx
+++ b/2025 Excel Esports Chile - The Grand Excel Fair (Juan Jose Cifuentes) - Case and Answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F45384C-1AE2-4849-8977-EA3FB83C2D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50B2A8E7-3B36-4BAB-97F8-D132387297B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7AACD38C-9D70-42DF-BFBB-A00DA8F337DD}"/>
   </bookViews>
@@ -32,6 +32,7 @@
     <definedName name="_tFoodCart">Table1[#All]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1804,8 +1805,17 @@
     <xf numFmtId="0" fontId="32" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1815,6 +1825,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1830,24 +1849,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2427,7 +2428,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$R$164:$R$183" spid="_x0000_s1026"/>
+                  <a14:cameraTool cellRange="$R$164:$R$183" spid="_x0000_s1027"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3067,39 +3068,39 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" customHeight="1"/>
     <row r="2" spans="2:13" ht="59.25" customHeight="1">
-      <c r="B2" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="119"/>
+      <c r="B2" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="110"/>
     </row>
     <row r="3" spans="2:13" ht="15" customHeight="1"/>
     <row r="4" spans="2:13" ht="33" customHeight="1">
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="110"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="113"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="108" t="s">
+      <c r="L4" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="110"/>
+      <c r="M4" s="113"/>
     </row>
     <row r="5" spans="2:13" ht="196.2" customHeight="1">
       <c r="C5"/>
@@ -3109,10 +3110,10 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:13" ht="33" customHeight="1">
-      <c r="L6" s="108" t="s">
+      <c r="L6" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="110"/>
+      <c r="M6" s="113"/>
     </row>
     <row r="7" spans="2:13" ht="113.4" customHeight="1">
       <c r="K7" s="4"/>
@@ -3120,52 +3121,52 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="121"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
     </row>
     <row r="9" spans="2:13" ht="58.5" customHeight="1">
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
     </row>
     <row r="10" spans="2:13" ht="125.4" customHeight="1">
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1">
       <c r="B11" s="5"/>
@@ -3182,20 +3183,20 @@
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="110"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="113"/>
     </row>
     <row r="13" spans="2:13" ht="15" customHeight="1">
       <c r="B13" s="7"/>
@@ -3245,15 +3246,15 @@
         <v>12</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="112" t="s">
+      <c r="G16" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="114"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="120"/>
     </row>
     <row r="17" spans="2:13" ht="37.5" customHeight="1">
       <c r="B17" s="15" t="s">
@@ -3267,15 +3268,15 @@
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="115" t="s">
+      <c r="G17" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
     </row>
     <row r="18" spans="2:13" ht="37.5" customHeight="1">
       <c r="B18" s="15" t="s">
@@ -3289,15 +3290,15 @@
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="107" t="s">
+      <c r="G18" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="116"/>
+      <c r="M18" s="116"/>
     </row>
     <row r="19" spans="2:13" ht="37.5" customHeight="1">
       <c r="B19" s="15" t="s">
@@ -3311,15 +3312,15 @@
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="107" t="s">
+      <c r="G19" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="116"/>
     </row>
     <row r="20" spans="2:13" ht="37.5" customHeight="1">
       <c r="B20" s="15" t="s">
@@ -3333,15 +3334,15 @@
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="107" t="s">
+      <c r="G20" s="116" t="s">
         <v>249</v>
       </c>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="116"/>
     </row>
     <row r="21" spans="2:13" ht="37.5" customHeight="1">
       <c r="B21" s="15" t="s">
@@ -3355,34 +3356,34 @@
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="107" t="s">
+      <c r="G21" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="116"/>
+      <c r="M21" s="116"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1">
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="2:13" ht="23.4">
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="109"/>
-      <c r="L23" s="109"/>
-      <c r="M23" s="110"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="113"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" thickBot="1">
       <c r="B24" s="22"/>
@@ -9701,12 +9702,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="B8:M8"/>
     <mergeCell ref="G20:M20"/>
     <mergeCell ref="G21:M21"/>
     <mergeCell ref="B23:M23"/>
@@ -9716,6 +9711,12 @@
     <mergeCell ref="G17:M17"/>
     <mergeCell ref="G18:M18"/>
     <mergeCell ref="G19:M19"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B8:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12514,39 +12515,39 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" customHeight="1"/>
     <row r="2" spans="2:13" ht="59.25" customHeight="1">
-      <c r="B2" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="119"/>
+      <c r="B2" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="110"/>
     </row>
     <row r="3" spans="2:13" ht="15" customHeight="1"/>
     <row r="4" spans="2:13" ht="33" customHeight="1">
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="110"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="113"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="108" t="s">
+      <c r="L4" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="110"/>
+      <c r="M4" s="113"/>
     </row>
     <row r="5" spans="2:13" ht="196.2" customHeight="1">
       <c r="C5"/>
@@ -12556,10 +12557,10 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:13" ht="33" customHeight="1">
-      <c r="L6" s="108" t="s">
+      <c r="L6" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="110"/>
+      <c r="M6" s="113"/>
     </row>
     <row r="7" spans="2:13" ht="113.4" customHeight="1">
       <c r="K7" s="4"/>
@@ -12567,52 +12568,52 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="121"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
     </row>
     <row r="9" spans="2:13" ht="58.5" customHeight="1">
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
     </row>
     <row r="10" spans="2:13" ht="125.4" customHeight="1">
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1">
       <c r="B11" s="5"/>
@@ -12629,20 +12630,20 @@
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="110"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="113"/>
     </row>
     <row r="13" spans="2:13" ht="15" customHeight="1">
       <c r="B13" s="7"/>
@@ -12692,15 +12693,15 @@
         <v>12</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="112" t="s">
+      <c r="G16" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="114"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="120"/>
     </row>
     <row r="17" spans="2:13" ht="37.5" customHeight="1">
       <c r="B17" s="15" t="s">
@@ -12719,15 +12720,15 @@
         <f>IF(ISBLANK(Case!E17), 0, IF(E17=Case!E17, 1, -1))</f>
         <v>0</v>
       </c>
-      <c r="G17" s="115" t="s">
+      <c r="G17" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
     </row>
     <row r="18" spans="2:13" ht="37.5" customHeight="1">
       <c r="B18" s="15" t="s">
@@ -12746,15 +12747,15 @@
         <f>IF(ISBLANK(Case!E18), 0, IF(E18=Case!E18, 1, -1))</f>
         <v>0</v>
       </c>
-      <c r="G18" s="107" t="s">
+      <c r="G18" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="116"/>
+      <c r="M18" s="116"/>
     </row>
     <row r="19" spans="2:13" ht="37.5" customHeight="1">
       <c r="B19" s="15" t="s">
@@ -12773,15 +12774,15 @@
         <f>IF(ISBLANK(Case!E19), 0, IF(E19=Case!E19, 1, -1))</f>
         <v>0</v>
       </c>
-      <c r="G19" s="107" t="s">
+      <c r="G19" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="116"/>
     </row>
     <row r="20" spans="2:13" ht="37.5" customHeight="1">
       <c r="B20" s="15" t="s">
@@ -12800,15 +12801,15 @@
         <f>IF(ISBLANK(Case!E20), 0, IF(E20=Case!E20, 1, -1))</f>
         <v>0</v>
       </c>
-      <c r="G20" s="107" t="s">
+      <c r="G20" s="116" t="s">
         <v>249</v>
       </c>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="116"/>
     </row>
     <row r="21" spans="2:13" ht="37.5" customHeight="1">
       <c r="B21" s="15" t="s">
@@ -12827,34 +12828,34 @@
         <f>IF(ISBLANK(Case!E21), 0, IF(E21=Case!E21, 1, -1))</f>
         <v>0</v>
       </c>
-      <c r="G21" s="107" t="s">
+      <c r="G21" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="116"/>
+      <c r="M21" s="116"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1">
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="2:13" ht="23.4">
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="109"/>
-      <c r="L23" s="109"/>
-      <c r="M23" s="110"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="113"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" thickBot="1">
       <c r="B24" s="22"/>
@@ -18743,11 +18744,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M28"/>
     <mergeCell ref="G19:M19"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B4:J4"/>
@@ -18760,6 +18756,11 @@
     <mergeCell ref="G16:M16"/>
     <mergeCell ref="G17:M17"/>
     <mergeCell ref="G18:M18"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2025 Excel Esports Chile - The Grand Excel Fair (Juan Jose Cifuentes) - Case and Answers.xlsx
+++ b/2025 Excel Esports Chile - The Grand Excel Fair (Juan Jose Cifuentes) - Case and Answers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50B2A8E7-3B36-4BAB-97F8-D132387297B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F08B7F-FA19-44D6-869B-7B29B05D5EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7AACD38C-9D70-42DF-BFBB-A00DA8F337DD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{7AACD38C-9D70-42DF-BFBB-A00DA8F337DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,6 @@
     <definedName name="_tFoodCart">Table1[#All]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +52,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -75,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="272">
   <si>
     <t>Juan José Cifuentes</t>
   </si>
@@ -1505,7 +1504,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1680,15 +1679,6 @@
     <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1701,23 +1691,8 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1731,10 +1706,6 @@
     <xf numFmtId="0" fontId="32" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1744,13 +1715,6 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1805,17 +1769,8 @@
     <xf numFmtId="0" fontId="32" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1825,15 +1780,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1849,6 +1795,24 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1886,13 +1850,291 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Fuente de cuerpo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Fuente de cuerpo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Fuente de cuerpo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Fuente de cuerpo"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Fuente de cuerpo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Fuente de cuerpo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Fuente de cuerpo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Fuente de cuerpo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Fuente de cuerpo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2428,7 +2670,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$R$164:$R$183" spid="_x0000_s1027"/>
+                  <a14:cameraTool cellRange="$R$164:$R$183" spid="_x0000_s1031"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2673,25 +2915,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{281469F6-A680-4F13-A5C4-A76AEA7BC253}" name="_tKites" displayName="_tKites" ref="B2:F32" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{281469F6-A680-4F13-A5C4-A76AEA7BC253}" name="_tKites" displayName="_tKites" ref="B2:F32" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22">
   <autoFilter ref="B2:F32" xr:uid="{281469F6-A680-4F13-A5C4-A76AEA7BC253}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B4F30E5E-B254-4101-8E49-EBAFA4A4A4F2}" name="Name" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{942B3D12-6914-4E12-BFAA-729ED1349061}" name="Shape" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{69AE0856-7D02-43E3-90FA-7194B5008A6A}" name="Size" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{5D24A910-A9F2-4B71-9EC8-0DDCA5C0B6E7}" name="Material" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{65544CFE-274F-4E76-A03C-ECED55B5349B}" name="Color" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{B4F30E5E-B254-4101-8E49-EBAFA4A4A4F2}" name="Name" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{942B3D12-6914-4E12-BFAA-729ED1349061}" name="Shape" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{69AE0856-7D02-43E3-90FA-7194B5008A6A}" name="Size" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{5D24A910-A9F2-4B71-9EC8-0DDCA5C0B6E7}" name="Material" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{65544CFE-274F-4E76-A03C-ECED55B5349B}" name="Color" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{751B59EB-3ACA-4593-973B-9B9301BB1BBC}" name="Table1" displayName="Table1" ref="A2:B10" totalsRowShown="0" headerRowBorderDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{751B59EB-3ACA-4593-973B-9B9301BB1BBC}" name="Table1" displayName="Table1" ref="A2:B10" totalsRowShown="0" headerRowBorderDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A2:B10" xr:uid="{751B59EB-3ACA-4593-973B-9B9301BB1BBC}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8CB7323C-E541-4E42-A2E7-A7B2E11D436D}" name="Dish" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{180E054B-923A-47A5-968C-D1DA2EE528FA}" name="Price" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{8CB7323C-E541-4E42-A2E7-A7B2E11D436D}" name="Dish" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{180E054B-923A-47A5-968C-D1DA2EE528FA}" name="Price" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5E2394B9-7F6F-4C2B-8999-D3236720FF86}" name="_tGrades" displayName="_tGrades" ref="B2:F32" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="11" tableBorderDxfId="12">
+  <autoFilter ref="B2:F32" xr:uid="{5E2394B9-7F6F-4C2B-8999-D3236720FF86}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{57C44D15-9539-4C7A-AF27-3DD542595CED}" name="Name" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{6AB3778D-ADF5-4EEC-AFB5-F442732B3968}" name="Morphology" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{CA72D8D3-411F-4E27-887D-27E3999B8F07}" name="Coat" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{1C74A9B4-CAD5-4027-959E-9F8A39EE56A9}" name="Height (cm)" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{A1745C57-57FB-4333-A812-928D88BF27BB}" name="Weight (kg)" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EDD43C02-07D5-4927-AC9A-4D1689727078}" name="_tCoat" displayName="_tCoat" ref="H2:I7" totalsRowShown="0" dataDxfId="0" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="H2:I7" xr:uid="{EDD43C02-07D5-4927-AC9A-4D1689727078}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{6550D798-1135-46B2-BAD9-0FF93D7A6D64}" name="Coat" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{E954436F-5CBF-480E-92FE-11E2DAE00E54}" name="Score" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3014,7 +3281,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="1448" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="951" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -3049,8 +3316,8 @@
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:AA277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H158" workbookViewId="0">
-      <selection activeCell="O160" sqref="O160"/>
+    <sheetView topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="E210" sqref="E210:E229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8984375" defaultRowHeight="14.4"/>
@@ -3068,39 +3335,39 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" customHeight="1"/>
     <row r="2" spans="2:13" ht="59.25" customHeight="1">
-      <c r="B2" s="108" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="110"/>
+      <c r="B2" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="104"/>
     </row>
     <row r="3" spans="2:13" ht="15" customHeight="1"/>
     <row r="4" spans="2:13" ht="33" customHeight="1">
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="113"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="95"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="111" t="s">
+      <c r="L4" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="113"/>
+      <c r="M4" s="95"/>
     </row>
     <row r="5" spans="2:13" ht="196.2" customHeight="1">
       <c r="C5"/>
@@ -3110,10 +3377,10 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:13" ht="33" customHeight="1">
-      <c r="L6" s="111" t="s">
+      <c r="L6" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="113"/>
+      <c r="M6" s="95"/>
     </row>
     <row r="7" spans="2:13" ht="113.4" customHeight="1">
       <c r="K7" s="4"/>
@@ -3121,52 +3388,52 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
     </row>
     <row r="9" spans="2:13" ht="58.5" customHeight="1">
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
     </row>
     <row r="10" spans="2:13" ht="125.4" customHeight="1">
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1">
       <c r="B11" s="5"/>
@@ -3183,20 +3450,20 @@
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="113"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="95"/>
     </row>
     <row r="13" spans="2:13" ht="15" customHeight="1">
       <c r="B13" s="7"/>
@@ -3246,15 +3513,15 @@
         <v>12</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="118" t="s">
+      <c r="G16" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="120"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="99"/>
     </row>
     <row r="17" spans="2:13" ht="37.5" customHeight="1">
       <c r="B17" s="15" t="s">
@@ -3268,15 +3535,15 @@
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="121" t="s">
+      <c r="G17" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="121"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="121"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="121"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="100"/>
     </row>
     <row r="18" spans="2:13" ht="37.5" customHeight="1">
       <c r="B18" s="15" t="s">
@@ -3290,15 +3557,15 @@
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="116" t="s">
+      <c r="G18" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="116"/>
-      <c r="M18" s="116"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
     </row>
     <row r="19" spans="2:13" ht="37.5" customHeight="1">
       <c r="B19" s="15" t="s">
@@ -3312,15 +3579,15 @@
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="116" t="s">
+      <c r="G19" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
     </row>
     <row r="20" spans="2:13" ht="37.5" customHeight="1">
       <c r="B20" s="15" t="s">
@@ -3334,15 +3601,15 @@
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="116" t="s">
+      <c r="G20" s="92" t="s">
         <v>249</v>
       </c>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="116"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
     </row>
     <row r="21" spans="2:13" ht="37.5" customHeight="1">
       <c r="B21" s="15" t="s">
@@ -3356,34 +3623,34 @@
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="116" t="s">
+      <c r="G21" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="116"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1">
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="2:13" ht="23.4">
-      <c r="B23" s="111" t="s">
+      <c r="B23" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="112"/>
-      <c r="M23" s="113"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="95"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" thickBot="1">
       <c r="B24" s="22"/>
@@ -4997,10 +5264,10 @@
       <c r="J94" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="K94" s="101" t="s">
+      <c r="K94" s="86" t="s">
         <v>260</v>
       </c>
-      <c r="L94" s="102"/>
+      <c r="L94" s="87"/>
       <c r="M94" s="51" t="str">
         <v>Condor Azul</v>
       </c>
@@ -8110,7 +8377,7 @@
       <c r="F192" s="29"/>
       <c r="G192" s="29"/>
     </row>
-    <row r="193" spans="2:13" s="9" customFormat="1" ht="14.4" customHeight="1">
+    <row r="193" spans="2:15" s="9" customFormat="1" ht="14.4" customHeight="1">
       <c r="B193" s="30" t="s">
         <v>110</v>
       </c>
@@ -8120,7 +8387,7 @@
       <c r="F193" s="29"/>
       <c r="G193" s="29"/>
     </row>
-    <row r="194" spans="2:13" s="9" customFormat="1" ht="14.4" customHeight="1">
+    <row r="194" spans="2:15" s="9" customFormat="1" ht="14.4" customHeight="1">
       <c r="B194" s="30"/>
       <c r="C194" s="29"/>
       <c r="D194" s="29"/>
@@ -8128,7 +8395,7 @@
       <c r="F194" s="29"/>
       <c r="G194" s="29"/>
     </row>
-    <row r="195" spans="2:13" s="9" customFormat="1" ht="14.4" customHeight="1">
+    <row r="195" spans="2:15" s="9" customFormat="1" ht="14.4" customHeight="1">
       <c r="B195" s="27" t="s">
         <v>111</v>
       </c>
@@ -8138,7 +8405,7 @@
       <c r="F195" s="29"/>
       <c r="G195" s="29"/>
     </row>
-    <row r="196" spans="2:13" s="9" customFormat="1" ht="14.4" customHeight="1">
+    <row r="196" spans="2:15" s="9" customFormat="1" ht="14.4" customHeight="1">
       <c r="B196" s="58" t="s">
         <v>112</v>
       </c>
@@ -8148,7 +8415,7 @@
       <c r="F196" s="29"/>
       <c r="G196" s="29"/>
     </row>
-    <row r="197" spans="2:13" s="9" customFormat="1" ht="14.4" customHeight="1">
+    <row r="197" spans="2:15" s="9" customFormat="1" ht="14.4" customHeight="1">
       <c r="B197" s="58" t="s">
         <v>113</v>
       </c>
@@ -8158,7 +8425,7 @@
       <c r="F197" s="29"/>
       <c r="G197" s="29"/>
     </row>
-    <row r="198" spans="2:13" s="9" customFormat="1" ht="14.4" customHeight="1">
+    <row r="198" spans="2:15" s="9" customFormat="1" ht="14.4" customHeight="1">
       <c r="B198" s="58" t="s">
         <v>114</v>
       </c>
@@ -8168,7 +8435,7 @@
       <c r="F198" s="29"/>
       <c r="G198" s="29"/>
     </row>
-    <row r="199" spans="2:13" s="9" customFormat="1" ht="14.4" customHeight="1">
+    <row r="199" spans="2:15" s="9" customFormat="1" ht="14.4" customHeight="1">
       <c r="B199" s="58" t="s">
         <v>115</v>
       </c>
@@ -8178,7 +8445,7 @@
       <c r="F199" s="29"/>
       <c r="G199" s="29"/>
     </row>
-    <row r="200" spans="2:13" s="9" customFormat="1" ht="14.4" customHeight="1">
+    <row r="200" spans="2:15" s="9" customFormat="1" ht="14.4" customHeight="1">
       <c r="B200" s="27" t="s">
         <v>116</v>
       </c>
@@ -8188,7 +8455,7 @@
       <c r="F200" s="29"/>
       <c r="G200" s="29"/>
     </row>
-    <row r="201" spans="2:13" s="9" customFormat="1" ht="14.4" customHeight="1">
+    <row r="201" spans="2:15" s="9" customFormat="1" ht="14.4" customHeight="1">
       <c r="B201" s="27"/>
       <c r="C201" s="48"/>
       <c r="D201" s="29"/>
@@ -8196,7 +8463,7 @@
       <c r="F201" s="29"/>
       <c r="G201" s="29"/>
     </row>
-    <row r="202" spans="2:13" s="9" customFormat="1" ht="14.4" customHeight="1">
+    <row r="202" spans="2:15" s="9" customFormat="1" ht="14.4" customHeight="1">
       <c r="B202" s="48" t="s">
         <v>117</v>
       </c>
@@ -8205,7 +8472,7 @@
       <c r="F202" s="29"/>
       <c r="G202" s="29"/>
     </row>
-    <row r="203" spans="2:13" s="9" customFormat="1" ht="14.4" customHeight="1">
+    <row r="203" spans="2:15" s="9" customFormat="1" ht="14.4" customHeight="1">
       <c r="B203" s="48" t="s">
         <v>118</v>
       </c>
@@ -8214,7 +8481,7 @@
       <c r="F203" s="29"/>
       <c r="G203" s="29"/>
     </row>
-    <row r="204" spans="2:13" s="9" customFormat="1" ht="14.4" customHeight="1">
+    <row r="204" spans="2:15" s="9" customFormat="1" ht="14.4" customHeight="1">
       <c r="B204" s="48" t="s">
         <v>119</v>
       </c>
@@ -8223,7 +8490,7 @@
       <c r="F204" s="29"/>
       <c r="G204" s="29"/>
     </row>
-    <row r="205" spans="2:13" s="9" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="205" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B205" s="51"/>
       <c r="C205" s="51"/>
       <c r="D205" s="51"/>
@@ -8237,7 +8504,7 @@
       <c r="L205" s="51"/>
       <c r="M205" s="51"/>
     </row>
-    <row r="206" spans="2:13" s="9" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+    <row r="206" spans="2:15" s="9" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
       <c r="B206" s="12" t="s">
         <v>9</v>
       </c>
@@ -8267,14 +8534,14 @@
       <c r="L206" s="51"/>
       <c r="M206" s="51"/>
     </row>
-    <row r="207" spans="2:13" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="207" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="F207" s="18"/>
       <c r="J207" s="52"/>
       <c r="K207" s="51"/>
       <c r="L207" s="51"/>
       <c r="M207" s="51"/>
     </row>
-    <row r="208" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
+    <row r="208" spans="2:15" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B208" s="33" t="s">
         <v>124</v>
       </c>
@@ -8300,22 +8567,64 @@
       <c r="J208" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="K208" s="51"/>
-      <c r="L208" s="51"/>
-      <c r="M208" s="51"/>
-    </row>
-    <row r="209" spans="2:13" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="K208" s="51">
+        <f>_xlfn.LET(_xlpm._z, G208, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>8.75</v>
+      </c>
+      <c r="L208" s="51">
+        <f>_xlfn.LET(_xlpm._z, H208, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7.5</v>
+      </c>
+      <c r="M208" s="51">
+        <f>_xlfn.LET(_xlpm._z, I208, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7.5</v>
+      </c>
+      <c r="N208" s="51">
+        <f>_xlfn.LET(_xlpm._z, J208, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7.5</v>
+      </c>
+      <c r="O208" s="9" t="str" cm="1">
+        <f t="array" ref="O208">INDEX(G208:J208,_xlfn.XMATCH(MAX(K208:N208),K208:N208))</f>
+        <v>Rocio Criollo</v>
+      </c>
+    </row>
+    <row r="209" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="E209" s="59"/>
       <c r="F209" s="18"/>
-      <c r="G209" s="40"/>
-      <c r="H209" s="40"/>
-      <c r="I209" s="40"/>
-      <c r="J209" s="40"/>
-      <c r="K209" s="51"/>
-      <c r="L209" s="51"/>
-      <c r="M209" s="51"/>
-    </row>
-    <row r="210" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="G209" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="H209" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="I209" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="J209" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="K209" s="51">
+        <f>_xlfn.LET(_xlpm._z, G209, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>8.75</v>
+      </c>
+      <c r="L209" s="51">
+        <f>_xlfn.LET(_xlpm._z, H209, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7.5</v>
+      </c>
+      <c r="M209" s="51">
+        <f>_xlfn.LET(_xlpm._z, I209, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7.5</v>
+      </c>
+      <c r="N209" s="51">
+        <f>_xlfn.LET(_xlpm._z, J209, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7.5</v>
+      </c>
+      <c r="O209" s="9" t="str" cm="1">
+        <f t="array" ref="O209">INDEX(G209:J209,_xlfn.XMATCH(MAX(K209:N209),K209:N209))</f>
+        <v>Rocio Criollo</v>
+      </c>
+    </row>
+    <row r="210" spans="2:15" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B210" s="34">
         <v>81</v>
       </c>
@@ -8325,7 +8634,9 @@
       <c r="D210" s="42">
         <v>10</v>
       </c>
-      <c r="E210" s="49"/>
+      <c r="E210" s="49" t="s">
+        <v>130</v>
+      </c>
       <c r="F210" s="18"/>
       <c r="G210" s="36" t="s">
         <v>129</v>
@@ -8339,11 +8650,28 @@
       <c r="J210" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="K210" s="51"/>
-      <c r="L210" s="51"/>
-      <c r="M210" s="51"/>
-    </row>
-    <row r="211" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K210" s="51">
+        <f>_xlfn.LET(_xlpm._z, G210, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>8.25</v>
+      </c>
+      <c r="L210" s="51">
+        <f>_xlfn.LET(_xlpm._z, H210, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7.5</v>
+      </c>
+      <c r="M210" s="51">
+        <f>_xlfn.LET(_xlpm._z, I210, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>8.75</v>
+      </c>
+      <c r="N210" s="51">
+        <f>_xlfn.LET(_xlpm._z, J210, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>9</v>
+      </c>
+      <c r="O210" s="9" t="str" cm="1">
+        <f t="array" ref="O210">INDEX(G210:J210,_xlfn.XMATCH(MAX(K210:N210),K210:N210))</f>
+        <v>Sol Tricolor</v>
+      </c>
+    </row>
+    <row r="211" spans="2:15" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B211" s="34">
         <v>82</v>
       </c>
@@ -8353,7 +8681,9 @@
       <c r="D211" s="42">
         <v>10</v>
       </c>
-      <c r="E211" s="49"/>
+      <c r="E211" s="49" t="s">
+        <v>133</v>
+      </c>
       <c r="F211" s="18"/>
       <c r="G211" s="36" t="s">
         <v>131</v>
@@ -8367,11 +8697,28 @@
       <c r="J211" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="K211" s="51"/>
-      <c r="L211" s="51"/>
-      <c r="M211" s="51"/>
-    </row>
-    <row r="212" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K211" s="51">
+        <f>_xlfn.LET(_xlpm._z, G211, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>6.75</v>
+      </c>
+      <c r="L211" s="51">
+        <f>_xlfn.LET(_xlpm._z, H211, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>8.5</v>
+      </c>
+      <c r="M211" s="51">
+        <f>_xlfn.LET(_xlpm._z, I211, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>9.25</v>
+      </c>
+      <c r="N211" s="51">
+        <f>_xlfn.LET(_xlpm._z, J211, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>6.75</v>
+      </c>
+      <c r="O211" s="9" t="str" cm="1">
+        <f t="array" ref="O211">INDEX(G211:J211,_xlfn.XMATCH(MAX(K211:N211),K211:N211))</f>
+        <v>Brio Austral</v>
+      </c>
+    </row>
+    <row r="212" spans="2:15" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B212" s="34">
         <v>83</v>
       </c>
@@ -8381,7 +8728,9 @@
       <c r="D212" s="42">
         <v>10</v>
       </c>
-      <c r="E212" s="49"/>
+      <c r="E212" s="49" t="s">
+        <v>133</v>
+      </c>
       <c r="F212" s="18"/>
       <c r="G212" s="36" t="s">
         <v>133</v>
@@ -8395,11 +8744,28 @@
       <c r="J212" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="K212" s="51"/>
-      <c r="L212" s="51"/>
-      <c r="M212" s="51"/>
-    </row>
-    <row r="213" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K212" s="51">
+        <f>_xlfn.LET(_xlpm._z, G212, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>9.25</v>
+      </c>
+      <c r="L212" s="51">
+        <f>_xlfn.LET(_xlpm._z, H212, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>8.5</v>
+      </c>
+      <c r="M212" s="51">
+        <f>_xlfn.LET(_xlpm._z, I212, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>9</v>
+      </c>
+      <c r="N212" s="51">
+        <f>_xlfn.LET(_xlpm._z, J212, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7</v>
+      </c>
+      <c r="O212" s="9" t="str" cm="1">
+        <f t="array" ref="O212">INDEX(G212:J212,_xlfn.XMATCH(MAX(K212:N212),K212:N212))</f>
+        <v>Brio Austral</v>
+      </c>
+    </row>
+    <row r="213" spans="2:15" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B213" s="34">
         <v>84</v>
       </c>
@@ -8409,7 +8775,9 @@
       <c r="D213" s="42">
         <v>10</v>
       </c>
-      <c r="E213" s="49"/>
+      <c r="E213" s="49" t="s">
+        <v>133</v>
+      </c>
       <c r="F213" s="18"/>
       <c r="G213" s="36" t="s">
         <v>136</v>
@@ -8423,11 +8791,28 @@
       <c r="J213" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="K213" s="51"/>
-      <c r="L213" s="51"/>
-      <c r="M213" s="51"/>
-    </row>
-    <row r="214" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K213" s="51">
+        <f>_xlfn.LET(_xlpm._z, G213, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>6.75</v>
+      </c>
+      <c r="L213" s="51">
+        <f>_xlfn.LET(_xlpm._z, H213, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7.25</v>
+      </c>
+      <c r="M213" s="51">
+        <f>_xlfn.LET(_xlpm._z, I213, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>8.25</v>
+      </c>
+      <c r="N213" s="51">
+        <f>_xlfn.LET(_xlpm._z, J213, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>9.25</v>
+      </c>
+      <c r="O213" s="9" t="str" cm="1">
+        <f t="array" ref="O213">INDEX(G213:J213,_xlfn.XMATCH(MAX(K213:N213),K213:N213))</f>
+        <v>Brio Austral</v>
+      </c>
+    </row>
+    <row r="214" spans="2:15" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B214" s="34">
         <v>85</v>
       </c>
@@ -8437,7 +8822,9 @@
       <c r="D214" s="42">
         <v>10</v>
       </c>
-      <c r="E214" s="49"/>
+      <c r="E214" s="49" t="s">
+        <v>139</v>
+      </c>
       <c r="F214" s="18"/>
       <c r="G214" s="36" t="s">
         <v>138</v>
@@ -8451,11 +8838,28 @@
       <c r="J214" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="K214" s="51"/>
-      <c r="L214" s="51"/>
-      <c r="M214" s="51"/>
-    </row>
-    <row r="215" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K214" s="51">
+        <f>_xlfn.LET(_xlpm._z, G214, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>6.75</v>
+      </c>
+      <c r="L214" s="51">
+        <f>_xlfn.LET(_xlpm._z, H214, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>8.5</v>
+      </c>
+      <c r="M214" s="51">
+        <f>_xlfn.LET(_xlpm._z, I214, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7.5</v>
+      </c>
+      <c r="N214" s="51">
+        <f>_xlfn.LET(_xlpm._z, J214, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7.75</v>
+      </c>
+      <c r="O214" s="9" t="str" cm="1">
+        <f t="array" ref="O214">INDEX(G214:J214,_xlfn.XMATCH(MAX(K214:N214),K214:N214))</f>
+        <v>Lucero Blanco</v>
+      </c>
+    </row>
+    <row r="215" spans="2:15" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B215" s="34">
         <v>86</v>
       </c>
@@ -8465,7 +8869,9 @@
       <c r="D215" s="42">
         <v>10</v>
       </c>
-      <c r="E215" s="49"/>
+      <c r="E215" s="49" t="s">
+        <v>133</v>
+      </c>
       <c r="F215" s="18"/>
       <c r="G215" s="36" t="s">
         <v>142</v>
@@ -8479,11 +8885,28 @@
       <c r="J215" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="K215" s="51"/>
-      <c r="L215" s="51"/>
-      <c r="M215" s="51"/>
-    </row>
-    <row r="216" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K215" s="51">
+        <f>_xlfn.LET(_xlpm._z, G215, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>6.25</v>
+      </c>
+      <c r="L215" s="51">
+        <f>_xlfn.LET(_xlpm._z, H215, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>9</v>
+      </c>
+      <c r="M215" s="51">
+        <f>_xlfn.LET(_xlpm._z, I215, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>9.25</v>
+      </c>
+      <c r="N215" s="51">
+        <f>_xlfn.LET(_xlpm._z, J215, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>6</v>
+      </c>
+      <c r="O215" s="9" t="str" cm="1">
+        <f t="array" ref="O215">INDEX(G215:J215,_xlfn.XMATCH(MAX(K215:N215),K215:N215))</f>
+        <v>Brio Austral</v>
+      </c>
+    </row>
+    <row r="216" spans="2:15" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B216" s="34">
         <v>87</v>
       </c>
@@ -8493,7 +8916,9 @@
       <c r="D216" s="42">
         <v>10</v>
       </c>
-      <c r="E216" s="49"/>
+      <c r="E216" s="49" t="s">
+        <v>145</v>
+      </c>
       <c r="F216" s="18"/>
       <c r="G216" s="36" t="s">
         <v>144</v>
@@ -8507,11 +8932,28 @@
       <c r="J216" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="K216" s="51"/>
-      <c r="L216" s="51"/>
-      <c r="M216" s="51"/>
-    </row>
-    <row r="217" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K216" s="51">
+        <f>_xlfn.LET(_xlpm._z, G216, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>8.5</v>
+      </c>
+      <c r="L216" s="51">
+        <f>_xlfn.LET(_xlpm._z, H216, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7.25</v>
+      </c>
+      <c r="M216" s="51">
+        <f>_xlfn.LET(_xlpm._z, I216, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>8.75</v>
+      </c>
+      <c r="N216" s="51">
+        <f>_xlfn.LET(_xlpm._z, J216, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7.5</v>
+      </c>
+      <c r="O216" s="9" t="str" cm="1">
+        <f t="array" ref="O216">INDEX(G216:J216,_xlfn.XMATCH(MAX(K216:N216),K216:N216))</f>
+        <v>Relincho Noble</v>
+      </c>
+    </row>
+    <row r="217" spans="2:15" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B217" s="34">
         <v>88</v>
       </c>
@@ -8521,7 +8963,9 @@
       <c r="D217" s="42">
         <v>10</v>
       </c>
-      <c r="E217" s="49"/>
+      <c r="E217" s="49" t="s">
+        <v>147</v>
+      </c>
       <c r="F217" s="18"/>
       <c r="G217" s="36" t="s">
         <v>146</v>
@@ -8535,11 +8979,28 @@
       <c r="J217" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="K217" s="51"/>
-      <c r="L217" s="51"/>
-      <c r="M217" s="51"/>
-    </row>
-    <row r="218" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K217" s="51">
+        <f>_xlfn.LET(_xlpm._z, G217, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>8</v>
+      </c>
+      <c r="L217" s="51">
+        <f>_xlfn.LET(_xlpm._z, H217, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7</v>
+      </c>
+      <c r="M217" s="51">
+        <f>_xlfn.LET(_xlpm._z, I217, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>8.75</v>
+      </c>
+      <c r="N217" s="51">
+        <f>_xlfn.LET(_xlpm._z, J217, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>6.5</v>
+      </c>
+      <c r="O217" s="9" t="str" cm="1">
+        <f t="array" ref="O217">INDEX(G217:J217,_xlfn.XMATCH(MAX(K217:N217),K217:N217))</f>
+        <v>Quillay Azul</v>
+      </c>
+    </row>
+    <row r="218" spans="2:15" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B218" s="34">
         <v>89</v>
       </c>
@@ -8549,7 +9010,9 @@
       <c r="D218" s="42">
         <v>10</v>
       </c>
-      <c r="E218" s="49"/>
+      <c r="E218" s="49" t="s">
+        <v>147</v>
+      </c>
       <c r="F218" s="18"/>
       <c r="G218" s="36" t="s">
         <v>149</v>
@@ -8563,11 +9026,28 @@
       <c r="J218" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="K218" s="51"/>
-      <c r="L218" s="51"/>
-      <c r="M218" s="51"/>
-    </row>
-    <row r="219" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K218" s="51">
+        <f>_xlfn.LET(_xlpm._z, G218, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7.75</v>
+      </c>
+      <c r="L218" s="51">
+        <f>_xlfn.LET(_xlpm._z, H218, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7</v>
+      </c>
+      <c r="M218" s="51">
+        <f>_xlfn.LET(_xlpm._z, I218, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7.25</v>
+      </c>
+      <c r="N218" s="51">
+        <f>_xlfn.LET(_xlpm._z, J218, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>8.75</v>
+      </c>
+      <c r="O218" s="9" t="str" cm="1">
+        <f t="array" ref="O218">INDEX(G218:J218,_xlfn.XMATCH(MAX(K218:N218),K218:N218))</f>
+        <v>Quillay Azul</v>
+      </c>
+    </row>
+    <row r="219" spans="2:15" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B219" s="34">
         <v>90</v>
       </c>
@@ -8577,7 +9057,9 @@
       <c r="D219" s="42">
         <v>10</v>
       </c>
-      <c r="E219" s="49"/>
+      <c r="E219" s="49" t="s">
+        <v>151</v>
+      </c>
       <c r="F219" s="18"/>
       <c r="G219" s="36" t="s">
         <v>148</v>
@@ -8591,11 +9073,28 @@
       <c r="J219" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="K219" s="51"/>
-      <c r="L219" s="51"/>
-      <c r="M219" s="51"/>
-    </row>
-    <row r="220" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K219" s="51">
+        <f>_xlfn.LET(_xlpm._z, G219, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>6.5</v>
+      </c>
+      <c r="L219" s="51">
+        <f>_xlfn.LET(_xlpm._z, H219, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>6.75</v>
+      </c>
+      <c r="M219" s="51">
+        <f>_xlfn.LET(_xlpm._z, I219, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>8</v>
+      </c>
+      <c r="N219" s="51">
+        <f>_xlfn.LET(_xlpm._z, J219, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7.5</v>
+      </c>
+      <c r="O219" s="9" t="str" cm="1">
+        <f t="array" ref="O219">INDEX(G219:J219,_xlfn.XMATCH(MAX(K219:N219),K219:N219))</f>
+        <v>Quila Dorada</v>
+      </c>
+    </row>
+    <row r="220" spans="2:15" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B220" s="34">
         <v>91</v>
       </c>
@@ -8605,7 +9104,9 @@
       <c r="D220" s="42">
         <v>10</v>
       </c>
-      <c r="E220" s="49"/>
+      <c r="E220" s="49" t="s">
+        <v>133</v>
+      </c>
       <c r="F220" s="18"/>
       <c r="G220" s="36" t="s">
         <v>152</v>
@@ -8619,11 +9120,28 @@
       <c r="J220" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="K220" s="51"/>
-      <c r="L220" s="51"/>
-      <c r="M220" s="51"/>
-    </row>
-    <row r="221" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K220" s="51">
+        <f>_xlfn.LET(_xlpm._z, G220, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7</v>
+      </c>
+      <c r="L220" s="51">
+        <f>_xlfn.LET(_xlpm._z, H220, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>8</v>
+      </c>
+      <c r="M220" s="51">
+        <f>_xlfn.LET(_xlpm._z, I220, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>8.75</v>
+      </c>
+      <c r="N220" s="51">
+        <f>_xlfn.LET(_xlpm._z, J220, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>9.25</v>
+      </c>
+      <c r="O220" s="9" t="str" cm="1">
+        <f t="array" ref="O220">INDEX(G220:J220,_xlfn.XMATCH(MAX(K220:N220),K220:N220))</f>
+        <v>Brio Austral</v>
+      </c>
+    </row>
+    <row r="221" spans="2:15" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B221" s="34">
         <v>92</v>
       </c>
@@ -8633,7 +9151,9 @@
       <c r="D221" s="42">
         <v>10</v>
       </c>
-      <c r="E221" s="49"/>
+      <c r="E221" s="49" t="s">
+        <v>146</v>
+      </c>
       <c r="F221" s="18"/>
       <c r="G221" s="36" t="s">
         <v>141</v>
@@ -8647,11 +9167,28 @@
       <c r="J221" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="K221" s="51"/>
-      <c r="L221" s="51"/>
-      <c r="M221" s="51"/>
-    </row>
-    <row r="222" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K221" s="51">
+        <f>_xlfn.LET(_xlpm._z, G221, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7.75</v>
+      </c>
+      <c r="L221" s="51">
+        <f>_xlfn.LET(_xlpm._z, H221, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>8</v>
+      </c>
+      <c r="M221" s="51">
+        <f>_xlfn.LET(_xlpm._z, I221, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>6.75</v>
+      </c>
+      <c r="N221" s="51">
+        <f>_xlfn.LET(_xlpm._z, J221, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7.75</v>
+      </c>
+      <c r="O221" s="9" t="str" cm="1">
+        <f t="array" ref="O221">INDEX(G221:J221,_xlfn.XMATCH(MAX(K221:N221),K221:N221))</f>
+        <v>Diamante Negro</v>
+      </c>
+    </row>
+    <row r="222" spans="2:15" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B222" s="34">
         <v>93</v>
       </c>
@@ -8661,7 +9198,9 @@
       <c r="D222" s="42">
         <v>10</v>
       </c>
-      <c r="E222" s="49"/>
+      <c r="E222" s="49" t="s">
+        <v>129</v>
+      </c>
       <c r="F222" s="18"/>
       <c r="G222" s="36" t="s">
         <v>129</v>
@@ -8675,11 +9214,28 @@
       <c r="J222" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="K222" s="51"/>
-      <c r="L222" s="51"/>
-      <c r="M222" s="51"/>
-    </row>
-    <row r="223" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K222" s="51">
+        <f>_xlfn.LET(_xlpm._z, G222, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>8.25</v>
+      </c>
+      <c r="L222" s="51">
+        <f>_xlfn.LET(_xlpm._z, H222, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7</v>
+      </c>
+      <c r="M222" s="51">
+        <f>_xlfn.LET(_xlpm._z, I222, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7.5</v>
+      </c>
+      <c r="N222" s="51">
+        <f>_xlfn.LET(_xlpm._z, J222, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7.75</v>
+      </c>
+      <c r="O222" s="9" t="str" cm="1">
+        <f t="array" ref="O222">INDEX(G222:J222,_xlfn.XMATCH(MAX(K222:N222),K222:N222))</f>
+        <v>Cordillera Azul</v>
+      </c>
+    </row>
+    <row r="223" spans="2:15" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B223" s="34">
         <v>94</v>
       </c>
@@ -8689,7 +9245,9 @@
       <c r="D223" s="42">
         <v>10</v>
       </c>
-      <c r="E223" s="49"/>
+      <c r="E223" s="49" t="s">
+        <v>151</v>
+      </c>
       <c r="F223" s="18"/>
       <c r="G223" s="36" t="s">
         <v>127</v>
@@ -8703,11 +9261,28 @@
       <c r="J223" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="K223" s="51"/>
-      <c r="L223" s="51"/>
-      <c r="M223" s="51"/>
-    </row>
-    <row r="224" spans="2:13" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K223" s="51">
+        <f>_xlfn.LET(_xlpm._z, G223, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7.5</v>
+      </c>
+      <c r="L223" s="51">
+        <f>_xlfn.LET(_xlpm._z, H223, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>6.75</v>
+      </c>
+      <c r="M223" s="51">
+        <f>_xlfn.LET(_xlpm._z, I223, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>8</v>
+      </c>
+      <c r="N223" s="51">
+        <f>_xlfn.LET(_xlpm._z, J223, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>6.75</v>
+      </c>
+      <c r="O223" s="9" t="str" cm="1">
+        <f t="array" ref="O223">INDEX(G223:J223,_xlfn.XMATCH(MAX(K223:N223),K223:N223))</f>
+        <v>Quila Dorada</v>
+      </c>
+    </row>
+    <row r="224" spans="2:15" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B224" s="34">
         <v>95</v>
       </c>
@@ -8717,7 +9292,9 @@
       <c r="D224" s="42">
         <v>10</v>
       </c>
-      <c r="E224" s="49"/>
+      <c r="E224" s="49" t="s">
+        <v>132</v>
+      </c>
       <c r="F224" s="18"/>
       <c r="G224" s="36" t="s">
         <v>129</v>
@@ -8731,9 +9308,26 @@
       <c r="J224" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="K224" s="51"/>
-      <c r="L224" s="51"/>
-      <c r="M224" s="51"/>
+      <c r="K224" s="51">
+        <f>_xlfn.LET(_xlpm._z, G224, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>8.25</v>
+      </c>
+      <c r="L224" s="51">
+        <f>_xlfn.LET(_xlpm._z, H224, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7.25</v>
+      </c>
+      <c r="M224" s="51">
+        <f>_xlfn.LET(_xlpm._z, I224, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>8.5</v>
+      </c>
+      <c r="N224" s="51">
+        <f>_xlfn.LET(_xlpm._z, J224, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>6.75</v>
+      </c>
+      <c r="O224" s="9" t="str" cm="1">
+        <f t="array" ref="O224">INDEX(G224:J224,_xlfn.XMATCH(MAX(K224:N224),K224:N224))</f>
+        <v>Chucao Alegre</v>
+      </c>
     </row>
     <row r="225" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B225" s="34">
@@ -8745,7 +9339,9 @@
       <c r="D225" s="42">
         <v>10</v>
       </c>
-      <c r="E225" s="49"/>
+      <c r="E225" s="49" t="s">
+        <v>132</v>
+      </c>
       <c r="F225" s="18"/>
       <c r="G225" s="36" t="s">
         <v>140</v>
@@ -8759,9 +9355,26 @@
       <c r="J225" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="K225" s="51"/>
-      <c r="L225" s="51"/>
-      <c r="M225" s="51"/>
+      <c r="K225" s="51">
+        <f>_xlfn.LET(_xlpm._z, G225, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7.5</v>
+      </c>
+      <c r="L225" s="51">
+        <f>_xlfn.LET(_xlpm._z, H225, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7.5</v>
+      </c>
+      <c r="M225" s="51">
+        <f>_xlfn.LET(_xlpm._z, I225, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>8.5</v>
+      </c>
+      <c r="N225" s="51">
+        <f>_xlfn.LET(_xlpm._z, J225, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7</v>
+      </c>
+      <c r="O225" s="9" t="str" cm="1">
+        <f t="array" ref="O225">INDEX(G225:J225,_xlfn.XMATCH(MAX(K225:N225),K225:N225))</f>
+        <v>Chucao Alegre</v>
+      </c>
     </row>
     <row r="226" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B226" s="34">
@@ -8773,7 +9386,9 @@
       <c r="D226" s="42">
         <v>10</v>
       </c>
-      <c r="E226" s="49"/>
+      <c r="E226" s="49" t="s">
+        <v>133</v>
+      </c>
       <c r="F226" s="18"/>
       <c r="G226" s="36" t="s">
         <v>135</v>
@@ -8787,9 +9402,26 @@
       <c r="J226" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="K226" s="51"/>
-      <c r="L226" s="51"/>
-      <c r="M226" s="51"/>
+      <c r="K226" s="51">
+        <f>_xlfn.LET(_xlpm._z, G226, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7</v>
+      </c>
+      <c r="L226" s="51">
+        <f>_xlfn.LET(_xlpm._z, H226, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>9.25</v>
+      </c>
+      <c r="M226" s="51">
+        <f>_xlfn.LET(_xlpm._z, I226, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>8.75</v>
+      </c>
+      <c r="N226" s="51">
+        <f>_xlfn.LET(_xlpm._z, J226, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7</v>
+      </c>
+      <c r="O226" s="9" t="str" cm="1">
+        <f t="array" ref="O226">INDEX(G226:J226,_xlfn.XMATCH(MAX(K226:N226),K226:N226))</f>
+        <v>Brio Austral</v>
+      </c>
     </row>
     <row r="227" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B227" s="34">
@@ -8801,7 +9433,9 @@
       <c r="D227" s="42">
         <v>10</v>
       </c>
-      <c r="E227" s="49"/>
+      <c r="E227" s="49" t="s">
+        <v>125</v>
+      </c>
       <c r="F227" s="18"/>
       <c r="G227" s="36" t="s">
         <v>132</v>
@@ -8815,9 +9449,26 @@
       <c r="J227" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="K227" s="51"/>
-      <c r="L227" s="51"/>
-      <c r="M227" s="51"/>
+      <c r="K227" s="51">
+        <f>_xlfn.LET(_xlpm._z, G227, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>8.5</v>
+      </c>
+      <c r="L227" s="51">
+        <f>_xlfn.LET(_xlpm._z, H227, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>8.75</v>
+      </c>
+      <c r="M227" s="51">
+        <f>_xlfn.LET(_xlpm._z, I227, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7</v>
+      </c>
+      <c r="N227" s="51">
+        <f>_xlfn.LET(_xlpm._z, J227, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>6.25</v>
+      </c>
+      <c r="O227" s="9" t="str" cm="1">
+        <f t="array" ref="O227">INDEX(G227:J227,_xlfn.XMATCH(MAX(K227:N227),K227:N227))</f>
+        <v>Rocio Criollo</v>
+      </c>
     </row>
     <row r="228" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B228" s="34">
@@ -8829,7 +9480,9 @@
       <c r="D228" s="42">
         <v>10</v>
       </c>
-      <c r="E228" s="49"/>
+      <c r="E228" s="49" t="s">
+        <v>153</v>
+      </c>
       <c r="F228" s="18"/>
       <c r="G228" s="36" t="s">
         <v>153</v>
@@ -8843,9 +9496,26 @@
       <c r="J228" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="K228" s="51"/>
-      <c r="L228" s="51"/>
-      <c r="M228" s="51"/>
+      <c r="K228" s="51">
+        <f>_xlfn.LET(_xlpm._z, G228, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>8.75</v>
+      </c>
+      <c r="L228" s="51">
+        <f>_xlfn.LET(_xlpm._z, H228, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7</v>
+      </c>
+      <c r="M228" s="51">
+        <f>_xlfn.LET(_xlpm._z, I228, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>7</v>
+      </c>
+      <c r="N228" s="51">
+        <f>_xlfn.LET(_xlpm._z, J228, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>6</v>
+      </c>
+      <c r="O228" s="9" t="str" cm="1">
+        <f t="array" ref="O228">INDEX(G228:J228,_xlfn.XMATCH(MAX(K228:N228),K228:N228))</f>
+        <v>Horizonte</v>
+      </c>
     </row>
     <row r="229" spans="1:27" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B229" s="34">
@@ -8857,7 +9527,9 @@
       <c r="D229" s="42">
         <v>10</v>
       </c>
-      <c r="E229" s="49"/>
+      <c r="E229" s="49" t="s">
+        <v>146</v>
+      </c>
       <c r="F229" s="18"/>
       <c r="G229" s="36" t="s">
         <v>146</v>
@@ -8871,9 +9543,26 @@
       <c r="J229" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="K229" s="51"/>
-      <c r="L229" s="51"/>
-      <c r="M229" s="51"/>
+      <c r="K229" s="51">
+        <f>_xlfn.LET(_xlpm._z, G229, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>8</v>
+      </c>
+      <c r="L229" s="51">
+        <f>_xlfn.LET(_xlpm._z, H229, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>6</v>
+      </c>
+      <c r="M229" s="51">
+        <f>_xlfn.LET(_xlpm._z, I229, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>6.75</v>
+      </c>
+      <c r="N229" s="51">
+        <f>_xlfn.LET(_xlpm._z, J229, _xlpm._m, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Morphology]) / 10, _xlpm._c, _xlfn.XLOOKUP(_xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Coat]), _tCoat[Coat], _tCoat[Score]), _xlpm._h, _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Height (cm)]), _xlpm._ha, _xlfn.SWITCH(TRUE, (_xlpm._h &lt;= 143), 10 - (143 - _xlpm._h), (_xlpm._h &gt;= 147), 10 - (_xlpm._h - 147), 10), _xlpm._bc, ROUND(10 * _xlfn.XLOOKUP(_xlpm._z, _tGrades[Name], _tGrades[Weight (kg)]) / _xlpm._h, 0), _xlpm._bca, 10 - ABS(_xlpm._bc - 31), AVERAGE(_xlfn.VSTACK(_xlpm._m, _xlpm._c, _xlpm._ha, _xlpm._bca)))</f>
+        <v>6.75</v>
+      </c>
+      <c r="O229" s="9" t="str" cm="1">
+        <f t="array" ref="O229">INDEX(G229:J229,_xlfn.XMATCH(MAX(K229:N229),K229:N229))</f>
+        <v>Diamante Negro</v>
+      </c>
     </row>
     <row r="230" spans="1:27" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A230" s="51"/>
@@ -8901,7 +9590,7 @@
       <c r="D231" s="44"/>
       <c r="E231" s="17" t="str">
         <f>IF(ISERROR(E210),"",E210)&amp;";"&amp;IF(ISERROR(E211),"",E211)&amp;";"&amp;IF(ISERROR(E212),"",E212)&amp;";"&amp;IF(ISERROR(E213),"",E213)&amp;";"&amp;IF(ISERROR(E214),"",E214)&amp;";"&amp;IF(ISERROR(E215),"",E215)&amp;";"&amp;IF(ISERROR(E216),"",E216)&amp;";"&amp;IF(ISERROR(E217),"",E217)&amp;";"&amp;IF(ISERROR(E218),"",E218)&amp;";"&amp;IF(ISERROR(E219),"",E219)&amp;";"&amp;IF(ISERROR(E220),"",E220)&amp;";"&amp;IF(ISERROR(E221),"",E221)&amp;";"&amp;IF(ISERROR(E222),"",E222)&amp;";"&amp;IF(ISERROR(E223),"",E223)&amp;";"&amp;IF(ISERROR(E224),"",E224)&amp;";"&amp;IF(ISERROR(E225),"",E225)&amp;";"&amp;IF(ISERROR(E226),"",E226)&amp;";"&amp;IF(ISERROR(E227),"",E227)&amp;";"&amp;IF(ISERROR(E228),"",E228)&amp;";"&amp;IF(ISERROR(E229),"",E229)</f>
-        <v>;;;;;;;;;;;;;;;;;;;</v>
+        <v>Sol Tricolor;Brio Austral;Brio Austral;Brio Austral;Lucero Blanco;Brio Austral;Relincho Noble;Quillay Azul;Quillay Azul;Quila Dorada;Brio Austral;Diamante Negro;Cordillera Azul;Quila Dorada;Chucao Alegre;Chucao Alegre;Brio Austral;Rocio Criollo;Horizonte;Diamante Negro</v>
       </c>
       <c r="F231" s="18"/>
       <c r="G231" s="1"/>
@@ -9702,6 +10391,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B8:M8"/>
     <mergeCell ref="G20:M20"/>
     <mergeCell ref="G21:M21"/>
     <mergeCell ref="B23:M23"/>
@@ -9711,12 +10406,6 @@
     <mergeCell ref="G17:M17"/>
     <mergeCell ref="G18:M18"/>
     <mergeCell ref="G19:M19"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="B8:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9970,160 +10659,160 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="16.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.69921875" style="66" customWidth="1"/>
-    <col min="2" max="2" width="19.59765625" style="66" customWidth="1"/>
-    <col min="3" max="4" width="19.59765625" style="75" customWidth="1"/>
+    <col min="1" max="1" width="5.69921875" style="63" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" style="63" customWidth="1"/>
+    <col min="3" max="4" width="19.59765625" style="67" customWidth="1"/>
     <col min="5" max="6" width="19.59765625" style="60" customWidth="1"/>
     <col min="7" max="16384" width="8.69921875" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="124"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:13" ht="16.95" customHeight="1">
       <c r="A2" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="90" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="106" t="s">
+      <c r="E2" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="106" t="s">
+      <c r="F2" s="91" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A3" s="65">
-        <v>1</v>
-      </c>
-      <c r="B3" s="66" t="s">
+      <c r="A3" s="62">
+        <v>1</v>
+      </c>
+      <c r="B3" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="65" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A4" s="65">
+      <c r="A4" s="62">
         <v>2</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="65" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A5" s="65">
+      <c r="A5" s="62">
         <v>3</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="65" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A6" s="65">
+      <c r="A6" s="62">
         <v>4</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="65" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A7" s="65">
+      <c r="A7" s="62">
         <v>5</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="65" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A8" s="65">
+      <c r="A8" s="62">
         <v>6</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="68" t="s">
+      <c r="E8" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="65" t="s">
         <v>61</v>
       </c>
       <c r="L8" s="60" t="str" cm="1">
@@ -10136,22 +10825,22 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A9" s="65">
+      <c r="A9" s="62">
         <v>7</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="65" t="s">
         <v>68</v>
       </c>
       <c r="L9" s="60" t="str">
@@ -10163,22 +10852,22 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A10" s="65">
+      <c r="A10" s="62">
         <v>8</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="65" t="s">
         <v>70</v>
       </c>
       <c r="L10" s="60" t="str">
@@ -10190,22 +10879,22 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A11" s="65">
+      <c r="A11" s="62">
         <v>9</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="65" t="s">
         <v>65</v>
       </c>
       <c r="L11" s="60" t="str">
@@ -10217,22 +10906,22 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A12" s="65">
+      <c r="A12" s="62">
         <v>10</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="63" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="65" t="s">
         <v>70</v>
       </c>
       <c r="L12" s="60" t="str">
@@ -10244,22 +10933,22 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A13" s="65">
+      <c r="A13" s="62">
         <v>11</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="68" t="s">
+      <c r="E13" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="65" t="s">
         <v>68</v>
       </c>
       <c r="L13" s="60" t="str">
@@ -10271,22 +10960,22 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A14" s="65">
+      <c r="A14" s="62">
         <v>12</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="68" t="s">
+      <c r="E14" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="68" t="s">
+      <c r="F14" s="65" t="s">
         <v>65</v>
       </c>
       <c r="L14" s="60" t="str">
@@ -10298,22 +10987,22 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A15" s="65">
+      <c r="A15" s="62">
         <v>13</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="68" t="s">
+      <c r="E15" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="F15" s="65" t="s">
         <v>61</v>
       </c>
       <c r="L15" s="60" t="str">
@@ -10325,22 +11014,22 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A16" s="65">
+      <c r="A16" s="62">
         <v>14</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="67" t="s">
+      <c r="D16" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="68" t="s">
+      <c r="E16" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="65" t="s">
         <v>65</v>
       </c>
       <c r="L16" s="60" t="str">
@@ -10352,22 +11041,22 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A17" s="65">
+      <c r="A17" s="62">
         <v>15</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="68" t="s">
+      <c r="E17" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="68" t="s">
+      <c r="F17" s="65" t="s">
         <v>70</v>
       </c>
       <c r="L17" s="60" t="str">
@@ -10379,22 +11068,22 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A18" s="65">
+      <c r="A18" s="62">
         <v>16</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="63" t="s">
         <v>245</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="68" t="s">
+      <c r="E18" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="68" t="s">
+      <c r="F18" s="65" t="s">
         <v>68</v>
       </c>
       <c r="L18" s="60" t="str">
@@ -10406,22 +11095,22 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A19" s="65">
+      <c r="A19" s="62">
         <v>17</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="63" t="s">
         <v>203</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="68" t="s">
+      <c r="E19" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="68" t="s">
+      <c r="F19" s="65" t="s">
         <v>68</v>
       </c>
       <c r="L19" s="60" t="str">
@@ -10433,22 +11122,22 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A20" s="65">
+      <c r="A20" s="62">
         <v>18</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="67" t="s">
+      <c r="D20" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="68" t="s">
+      <c r="E20" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="68" t="s">
+      <c r="F20" s="65" t="s">
         <v>70</v>
       </c>
       <c r="L20" s="60" t="str">
@@ -10460,22 +11149,22 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A21" s="65">
+      <c r="A21" s="62">
         <v>19</v>
       </c>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="63" t="s">
         <v>205</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="68" t="s">
+      <c r="E21" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="68" t="s">
+      <c r="F21" s="65" t="s">
         <v>61</v>
       </c>
       <c r="L21" s="60" t="str">
@@ -10487,22 +11176,22 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A22" s="65">
+      <c r="A22" s="62">
         <v>20</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="67" t="s">
+      <c r="D22" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="68" t="s">
+      <c r="E22" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="68" t="s">
+      <c r="F22" s="65" t="s">
         <v>65</v>
       </c>
       <c r="L22" s="60" t="str">
@@ -10514,22 +11203,22 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A23" s="65">
+      <c r="A23" s="62">
         <v>21</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="63" t="s">
         <v>246</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="68" t="s">
+      <c r="E23" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="68" t="s">
+      <c r="F23" s="65" t="s">
         <v>68</v>
       </c>
       <c r="L23" s="60" t="str">
@@ -10541,22 +11230,22 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A24" s="65">
+      <c r="A24" s="62">
         <v>22</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="67" t="s">
+      <c r="D24" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="68" t="s">
+      <c r="E24" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="68" t="s">
+      <c r="F24" s="65" t="s">
         <v>61</v>
       </c>
       <c r="L24" s="60" t="str">
@@ -10568,22 +11257,22 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A25" s="65">
+      <c r="A25" s="62">
         <v>23</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="68" t="s">
+      <c r="E25" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="68" t="s">
+      <c r="F25" s="65" t="s">
         <v>65</v>
       </c>
       <c r="L25" s="60" t="str">
@@ -10595,22 +11284,22 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A26" s="65">
+      <c r="A26" s="62">
         <v>24</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="63" t="s">
         <v>209</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="68" t="s">
+      <c r="E26" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="68" t="s">
+      <c r="F26" s="65" t="s">
         <v>70</v>
       </c>
       <c r="L26" s="60" t="str">
@@ -10622,22 +11311,22 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A27" s="65">
+      <c r="A27" s="62">
         <v>25</v>
       </c>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="68" t="s">
+      <c r="E27" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="68" t="s">
+      <c r="F27" s="65" t="s">
         <v>61</v>
       </c>
       <c r="L27" s="60" t="str">
@@ -10649,22 +11338,22 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A28" s="65">
+      <c r="A28" s="62">
         <v>26</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="67" t="s">
+      <c r="D28" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="68" t="s">
+      <c r="E28" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="68" t="s">
+      <c r="F28" s="65" t="s">
         <v>68</v>
       </c>
       <c r="L28" s="60" t="str">
@@ -10676,22 +11365,22 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A29" s="65">
+      <c r="A29" s="62">
         <v>27</v>
       </c>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="67" t="s">
+      <c r="D29" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="68" t="s">
+      <c r="E29" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="68" t="s">
+      <c r="F29" s="65" t="s">
         <v>61</v>
       </c>
       <c r="L29" s="60" t="str">
@@ -10703,22 +11392,22 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A30" s="65">
+      <c r="A30" s="62">
         <v>28</v>
       </c>
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="63" t="s">
         <v>211</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="68" t="s">
+      <c r="E30" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="68" t="s">
+      <c r="F30" s="65" t="s">
         <v>65</v>
       </c>
       <c r="L30" s="60" t="str">
@@ -10730,22 +11419,22 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A31" s="65">
+      <c r="A31" s="62">
         <v>29</v>
       </c>
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="67" t="s">
+      <c r="D31" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="68" t="s">
+      <c r="E31" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="68" t="s">
+      <c r="F31" s="65" t="s">
         <v>65</v>
       </c>
       <c r="L31" s="60" t="str">
@@ -10757,22 +11446,22 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A32" s="70">
+      <c r="A32" s="66">
         <v>30</v>
       </c>
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="67" t="s">
+      <c r="D32" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="68" t="s">
+      <c r="E32" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="68" t="s">
+      <c r="F32" s="65" t="s">
         <v>68</v>
       </c>
       <c r="L32" s="60" t="str">
@@ -10850,86 +11539,86 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="16.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" style="66" customWidth="1"/>
+    <col min="1" max="1" width="19.59765625" style="63" customWidth="1"/>
     <col min="2" max="2" width="19.59765625" style="60" customWidth="1"/>
     <col min="3" max="16384" width="8.69921875" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.95" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="108" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="124"/>
+      <c r="B1" s="109"/>
     </row>
     <row r="2" spans="1:2" ht="16.95" customHeight="1">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="90" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="91" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.95" customHeight="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="103">
+      <c r="B3" s="88">
         <v>2500</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.95" customHeight="1">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="104">
+      <c r="B4" s="89">
         <v>3000</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.95" customHeight="1">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="104">
+      <c r="B5" s="89">
         <v>3500</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.95" customHeight="1">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="104">
+      <c r="B6" s="89">
         <v>6000</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.95" customHeight="1">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="B7" s="104">
+      <c r="B7" s="89">
         <v>4000</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.95" customHeight="1">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="104">
+      <c r="B8" s="89">
         <v>3000</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.95" customHeight="1">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="104">
+      <c r="B9" s="89">
         <v>3500</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.95" customHeight="1">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="104">
+      <c r="B10" s="89">
         <v>5000</v>
       </c>
     </row>
@@ -10955,109 +11644,109 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="16.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="79.09765625" style="66" customWidth="1"/>
+    <col min="1" max="1" width="79.09765625" style="63" customWidth="1"/>
     <col min="2" max="16384" width="8.69921875" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="69" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="102" customHeight="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="70" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A3" s="65"/>
+      <c r="A3" s="62"/>
     </row>
     <row r="4" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A4" s="65"/>
+      <c r="A4" s="62"/>
     </row>
     <row r="5" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A5" s="65"/>
+      <c r="A5" s="62"/>
     </row>
     <row r="6" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A6" s="65"/>
+      <c r="A6" s="62"/>
     </row>
     <row r="7" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A7" s="65"/>
+      <c r="A7" s="62"/>
     </row>
     <row r="8" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A8" s="65"/>
+      <c r="A8" s="62"/>
     </row>
     <row r="9" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A9" s="65"/>
+      <c r="A9" s="62"/>
     </row>
     <row r="10" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A10" s="65"/>
+      <c r="A10" s="62"/>
     </row>
     <row r="11" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A11" s="65"/>
+      <c r="A11" s="62"/>
     </row>
     <row r="12" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A12" s="65"/>
+      <c r="A12" s="62"/>
     </row>
     <row r="13" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A13" s="65"/>
+      <c r="A13" s="62"/>
     </row>
     <row r="14" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A14" s="65"/>
+      <c r="A14" s="62"/>
     </row>
     <row r="15" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A15" s="65"/>
+      <c r="A15" s="62"/>
     </row>
     <row r="16" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A16" s="65"/>
+      <c r="A16" s="62"/>
     </row>
     <row r="17" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A17" s="65"/>
+      <c r="A17" s="62"/>
     </row>
     <row r="18" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A18" s="65"/>
+      <c r="A18" s="62"/>
     </row>
     <row r="19" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A19" s="65"/>
+      <c r="A19" s="62"/>
     </row>
     <row r="20" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A20" s="65"/>
+      <c r="A20" s="62"/>
     </row>
     <row r="21" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A21" s="65"/>
+      <c r="A21" s="62"/>
     </row>
     <row r="22" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A22" s="65"/>
+      <c r="A22" s="62"/>
     </row>
     <row r="23" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A23" s="65"/>
+      <c r="A23" s="62"/>
     </row>
     <row r="24" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A24" s="65"/>
+      <c r="A24" s="62"/>
     </row>
     <row r="25" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A25" s="65"/>
+      <c r="A25" s="62"/>
     </row>
     <row r="26" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A26" s="65"/>
+      <c r="A26" s="62"/>
     </row>
     <row r="27" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A27" s="65"/>
+      <c r="A27" s="62"/>
     </row>
     <row r="28" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A28" s="65"/>
+      <c r="A28" s="62"/>
     </row>
     <row r="29" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A29" s="65"/>
+      <c r="A29" s="62"/>
     </row>
     <row r="30" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A30" s="65"/>
+      <c r="A30" s="62"/>
     </row>
     <row r="31" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A31" s="65"/>
+      <c r="A31" s="62"/>
     </row>
     <row r="32" spans="1:1" ht="16.95" customHeight="1">
-      <c r="A32" s="70"/>
+      <c r="A32" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11070,14 +11759,14 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="16.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.69921875" style="66" customWidth="1"/>
-    <col min="2" max="2" width="19.59765625" style="66" customWidth="1"/>
-    <col min="3" max="4" width="19.59765625" style="75" customWidth="1"/>
+    <col min="1" max="1" width="5.69921875" style="63" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" style="63" customWidth="1"/>
+    <col min="3" max="4" width="19.59765625" style="67" customWidth="1"/>
     <col min="5" max="6" width="19.59765625" style="60" customWidth="1"/>
     <col min="7" max="7" width="8.69921875" style="60"/>
     <col min="8" max="8" width="13.8984375" style="60" customWidth="1"/>
@@ -11086,672 +11775,672 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.95" customHeight="1">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="107" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="124"/>
-      <c r="H1" s="122" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="109"/>
+      <c r="H1" s="107" t="s">
         <v>219</v>
       </c>
-      <c r="I1" s="124"/>
+      <c r="I1" s="109"/>
     </row>
     <row r="2" spans="1:9" ht="16.95" customHeight="1">
       <c r="A2" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="90" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="91" t="s">
         <v>220</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="91" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="123" t="s">
         <v>221</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="124" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.95" customHeight="1">
-      <c r="A3" s="76">
-        <v>1</v>
-      </c>
-      <c r="B3" s="81" t="s">
+      <c r="A3" s="68">
+        <v>1</v>
+      </c>
+      <c r="B3" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="82">
+      <c r="C3" s="72">
         <v>80</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="E3" s="83">
+      <c r="E3" s="73">
         <v>145</v>
       </c>
-      <c r="F3" s="84">
+      <c r="F3" s="73">
         <v>470</v>
       </c>
-      <c r="H3" s="85" t="s">
+      <c r="H3" s="122" t="s">
         <v>226</v>
       </c>
-      <c r="I3" s="86">
+      <c r="I3" s="122">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.95" customHeight="1">
-      <c r="A4" s="65">
+      <c r="A4" s="62">
         <v>2</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="64">
         <v>70</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="65">
         <v>142</v>
       </c>
-      <c r="F4" s="69">
+      <c r="F4" s="119">
         <v>450</v>
       </c>
-      <c r="H4" s="85" t="s">
+      <c r="H4" s="122" t="s">
         <v>227</v>
       </c>
-      <c r="I4" s="86">
+      <c r="I4" s="122">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.95" customHeight="1">
-      <c r="A5" s="65">
+      <c r="A5" s="62">
         <v>3</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="64">
         <v>90</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="E5" s="68">
+      <c r="E5" s="65">
         <v>148</v>
       </c>
-      <c r="F5" s="69">
+      <c r="F5" s="119">
         <v>500</v>
       </c>
-      <c r="H5" s="85" t="s">
+      <c r="H5" s="122" t="s">
         <v>228</v>
       </c>
-      <c r="I5" s="86">
+      <c r="I5" s="122">
         <v>6.0000000000000009</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.95" customHeight="1">
-      <c r="A6" s="65">
+      <c r="A6" s="62">
         <v>4</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="67">
+      <c r="C6" s="64">
         <v>60</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="65">
         <v>150</v>
       </c>
-      <c r="F6" s="69">
+      <c r="F6" s="119">
         <v>460</v>
       </c>
-      <c r="H6" s="85" t="s">
+      <c r="H6" s="122" t="s">
         <v>225</v>
       </c>
-      <c r="I6" s="86">
+      <c r="I6" s="122">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.95" customHeight="1">
-      <c r="A7" s="65">
+      <c r="A7" s="62">
         <v>5</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="64">
         <v>80</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="65">
         <v>144</v>
       </c>
-      <c r="F7" s="69">
+      <c r="F7" s="119">
         <v>475</v>
       </c>
-      <c r="H7" s="87" t="s">
+      <c r="H7" s="122" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="88">
+      <c r="I7" s="122">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.95" customHeight="1">
-      <c r="A8" s="65">
+      <c r="A8" s="62">
         <v>6</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="67">
+      <c r="C8" s="64">
         <v>50</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="65">
         <v>140</v>
       </c>
-      <c r="F8" s="69">
+      <c r="F8" s="119">
         <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.95" customHeight="1">
-      <c r="A9" s="65">
+      <c r="A9" s="62">
         <v>7</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="64">
         <v>90</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="65">
         <v>142</v>
       </c>
-      <c r="F9" s="69">
+      <c r="F9" s="119">
         <v>525</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.95" customHeight="1">
-      <c r="A10" s="65">
+      <c r="A10" s="62">
         <v>8</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="67">
+      <c r="C10" s="64">
         <v>70</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="65">
         <v>141</v>
       </c>
-      <c r="F10" s="69">
+      <c r="F10" s="119">
         <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.95" customHeight="1">
-      <c r="A11" s="65">
+      <c r="A11" s="62">
         <v>9</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="67">
+      <c r="C11" s="64">
         <v>60</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="65">
         <v>146</v>
       </c>
-      <c r="F11" s="69">
+      <c r="F11" s="119">
         <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.95" customHeight="1">
-      <c r="A12" s="65">
+      <c r="A12" s="62">
         <v>10</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="67">
+      <c r="C12" s="64">
         <v>80</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="65">
         <v>141</v>
       </c>
-      <c r="F12" s="69">
+      <c r="F12" s="119">
         <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.95" customHeight="1">
-      <c r="A13" s="65">
+      <c r="A13" s="62">
         <v>11</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="67">
+      <c r="C13" s="64">
         <v>70</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="65">
         <v>149</v>
       </c>
-      <c r="F13" s="69">
+      <c r="F13" s="119">
         <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.95" customHeight="1">
-      <c r="A14" s="65">
+      <c r="A14" s="62">
         <v>12</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="67">
+      <c r="C14" s="64">
         <v>50</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="65">
         <v>152</v>
       </c>
-      <c r="F14" s="69">
+      <c r="F14" s="119">
         <v>470</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.95" customHeight="1">
-      <c r="A15" s="65">
+      <c r="A15" s="62">
         <v>13</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="67">
+      <c r="C15" s="64">
         <v>60</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="E15" s="68">
+      <c r="E15" s="65">
         <v>142</v>
       </c>
-      <c r="F15" s="69">
+      <c r="F15" s="119">
         <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.95" customHeight="1">
-      <c r="A16" s="65">
+      <c r="A16" s="62">
         <v>14</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="C16" s="67">
+      <c r="C16" s="64">
         <v>90</v>
       </c>
-      <c r="D16" s="67" t="s">
+      <c r="D16" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="E16" s="68">
+      <c r="E16" s="65">
         <v>145</v>
       </c>
-      <c r="F16" s="69">
+      <c r="F16" s="119">
         <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.95" customHeight="1">
-      <c r="A17" s="65">
+      <c r="A17" s="62">
         <v>15</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="67">
+      <c r="C17" s="64">
         <v>50</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="E17" s="68">
+      <c r="E17" s="65">
         <v>148</v>
       </c>
-      <c r="F17" s="69">
+      <c r="F17" s="119">
         <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.95" customHeight="1">
-      <c r="A18" s="65">
+      <c r="A18" s="62">
         <v>16</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="C18" s="67">
+      <c r="C18" s="64">
         <v>70</v>
       </c>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="E18" s="68">
+      <c r="E18" s="65">
         <v>142</v>
       </c>
-      <c r="F18" s="69">
+      <c r="F18" s="119">
         <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.95" customHeight="1">
-      <c r="A19" s="65">
+      <c r="A19" s="62">
         <v>17</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="67">
+      <c r="C19" s="64">
         <v>90</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="E19" s="68">
+      <c r="E19" s="65">
         <v>146</v>
       </c>
-      <c r="F19" s="69">
+      <c r="F19" s="119">
         <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.95" customHeight="1">
-      <c r="A20" s="65">
+      <c r="A20" s="62">
         <v>18</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="67">
+      <c r="C20" s="64">
         <v>60</v>
       </c>
-      <c r="D20" s="67" t="s">
+      <c r="D20" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="E20" s="68">
+      <c r="E20" s="65">
         <v>141</v>
       </c>
-      <c r="F20" s="69">
+      <c r="F20" s="119">
         <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.95" customHeight="1">
-      <c r="A21" s="65">
+      <c r="A21" s="62">
         <v>19</v>
       </c>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="67">
+      <c r="C21" s="64">
         <v>50</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="E21" s="68">
+      <c r="E21" s="65">
         <v>144</v>
       </c>
-      <c r="F21" s="69">
+      <c r="F21" s="119">
         <v>435</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.95" customHeight="1">
-      <c r="A22" s="65">
+      <c r="A22" s="62">
         <v>20</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="67">
+      <c r="C22" s="64">
         <v>80</v>
       </c>
-      <c r="D22" s="67" t="s">
+      <c r="D22" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="E22" s="68">
+      <c r="E22" s="65">
         <v>148</v>
       </c>
-      <c r="F22" s="69">
+      <c r="F22" s="119">
         <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.95" customHeight="1">
-      <c r="A23" s="65">
+      <c r="A23" s="62">
         <v>21</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="67">
+      <c r="C23" s="64">
         <v>70</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="E23" s="68">
+      <c r="E23" s="65">
         <v>140</v>
       </c>
-      <c r="F23" s="69">
+      <c r="F23" s="119">
         <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.95" customHeight="1">
-      <c r="A24" s="65">
+      <c r="A24" s="62">
         <v>22</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="64">
         <v>60</v>
       </c>
-      <c r="D24" s="67" t="s">
+      <c r="D24" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="E24" s="68">
+      <c r="E24" s="65">
         <v>149</v>
       </c>
-      <c r="F24" s="69">
+      <c r="F24" s="119">
         <v>470</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.95" customHeight="1">
-      <c r="A25" s="65">
+      <c r="A25" s="62">
         <v>23</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="67">
+      <c r="C25" s="64">
         <v>90</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="E25" s="68">
+      <c r="E25" s="65">
         <v>143</v>
       </c>
-      <c r="F25" s="69">
+      <c r="F25" s="119">
         <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.95" customHeight="1">
-      <c r="A26" s="65">
+      <c r="A26" s="62">
         <v>24</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="67">
+      <c r="C26" s="64">
         <v>80</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="E26" s="68">
+      <c r="E26" s="65">
         <v>143</v>
       </c>
-      <c r="F26" s="69">
+      <c r="F26" s="119">
         <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.95" customHeight="1">
-      <c r="A27" s="65">
+      <c r="A27" s="62">
         <v>25</v>
       </c>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="C27" s="67">
+      <c r="C27" s="64">
         <v>50</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="E27" s="68">
+      <c r="E27" s="65">
         <v>142</v>
       </c>
-      <c r="F27" s="69">
+      <c r="F27" s="119">
         <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.95" customHeight="1">
-      <c r="A28" s="65">
+      <c r="A28" s="62">
         <v>26</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="63" t="s">
         <v>230</v>
       </c>
-      <c r="C28" s="67">
+      <c r="C28" s="64">
         <v>70</v>
       </c>
-      <c r="D28" s="67" t="s">
+      <c r="D28" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="E28" s="68">
+      <c r="E28" s="65">
         <v>147</v>
       </c>
-      <c r="F28" s="69">
+      <c r="F28" s="119">
         <v>485</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16.95" customHeight="1">
-      <c r="A29" s="65">
+      <c r="A29" s="62">
         <v>27</v>
       </c>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="C29" s="67">
+      <c r="C29" s="64">
         <v>60</v>
       </c>
-      <c r="D29" s="67" t="s">
+      <c r="D29" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="E29" s="68">
+      <c r="E29" s="65">
         <v>144</v>
       </c>
-      <c r="F29" s="69">
+      <c r="F29" s="119">
         <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.95" customHeight="1">
-      <c r="A30" s="65">
+      <c r="A30" s="62">
         <v>28</v>
       </c>
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="67">
+      <c r="C30" s="64">
         <v>80</v>
       </c>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="E30" s="68">
+      <c r="E30" s="65">
         <v>146</v>
       </c>
-      <c r="F30" s="69">
+      <c r="F30" s="119">
         <v>470</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.95" customHeight="1">
-      <c r="A31" s="65">
+      <c r="A31" s="62">
         <v>29</v>
       </c>
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="C31" s="67">
+      <c r="C31" s="64">
         <v>90</v>
       </c>
-      <c r="D31" s="67" t="s">
+      <c r="D31" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="E31" s="68">
+      <c r="E31" s="65">
         <v>150</v>
       </c>
-      <c r="F31" s="69">
+      <c r="F31" s="119">
         <v>510</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16.95" customHeight="1">
-      <c r="A32" s="70">
+      <c r="A32" s="66">
         <v>30</v>
       </c>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="72">
+      <c r="C32" s="121">
         <v>70</v>
       </c>
-      <c r="D32" s="72" t="s">
+      <c r="D32" s="121" t="s">
         <v>229</v>
       </c>
-      <c r="E32" s="73">
+      <c r="E32" s="119">
         <v>141</v>
       </c>
-      <c r="F32" s="74">
+      <c r="F32" s="119">
         <v>430</v>
       </c>
     </row>
@@ -11761,6 +12450,10 @@
     <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -11775,716 +12468,716 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="18.600000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6" style="66" customWidth="1"/>
-    <col min="2" max="25" width="6" style="75" customWidth="1"/>
-    <col min="26" max="16384" width="4" style="75"/>
+    <col min="1" max="1" width="6" style="63" customWidth="1"/>
+    <col min="2" max="25" width="6" style="67" customWidth="1"/>
+    <col min="26" max="16384" width="4" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="91" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="76" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="18.600000000000001" customHeight="1">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="94"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="79"/>
     </row>
     <row r="3" spans="1:25" ht="18.600000000000001" customHeight="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="94"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="79"/>
     </row>
     <row r="4" spans="1:25" ht="18.600000000000001" customHeight="1">
-      <c r="A4" s="95"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="93"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="93"/>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="94"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="79"/>
     </row>
     <row r="5" spans="1:25" ht="18.600000000000001" customHeight="1">
-      <c r="A5" s="95"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="94"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="79"/>
     </row>
     <row r="6" spans="1:25" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="95"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="93"/>
-      <c r="S6" s="93"/>
-      <c r="T6" s="93"/>
-      <c r="U6" s="93"/>
-      <c r="V6" s="93"/>
-      <c r="W6" s="93"/>
-      <c r="X6" s="93"/>
-      <c r="Y6" s="94"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="79"/>
     </row>
     <row r="7" spans="1:25" ht="18.600000000000001" customHeight="1">
-      <c r="A7" s="95"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="94"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="78"/>
+      <c r="Y7" s="79"/>
     </row>
     <row r="8" spans="1:25" ht="18.600000000000001" customHeight="1">
-      <c r="A8" s="95"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="93"/>
-      <c r="W8" s="93"/>
-      <c r="X8" s="93"/>
-      <c r="Y8" s="94"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="78"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="78"/>
+      <c r="W8" s="78"/>
+      <c r="X8" s="78"/>
+      <c r="Y8" s="79"/>
     </row>
     <row r="9" spans="1:25" ht="18.600000000000001" customHeight="1">
-      <c r="A9" s="95"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="94"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="79"/>
     </row>
     <row r="10" spans="1:25" ht="18.600000000000001" customHeight="1">
-      <c r="A10" s="95"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="93"/>
-      <c r="T10" s="93"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="93"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="94"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="78"/>
+      <c r="Y10" s="79"/>
     </row>
     <row r="11" spans="1:25" ht="18.600000000000001" customHeight="1">
-      <c r="A11" s="95"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="93"/>
-      <c r="S11" s="93"/>
-      <c r="T11" s="93"/>
-      <c r="U11" s="93"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="94"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="78"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="79"/>
     </row>
     <row r="12" spans="1:25" ht="18.600000000000001" customHeight="1">
-      <c r="A12" s="95"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="93"/>
-      <c r="T12" s="93"/>
-      <c r="U12" s="93"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="94"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="79"/>
     </row>
     <row r="13" spans="1:25" ht="18.600000000000001" customHeight="1">
-      <c r="A13" s="95"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="96" t="s">
+      <c r="A13" s="80"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="81" t="s">
         <v>233</v>
       </c>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="94"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="78"/>
+      <c r="W13" s="78"/>
+      <c r="X13" s="78"/>
+      <c r="Y13" s="79"/>
     </row>
     <row r="14" spans="1:25" ht="18.600000000000001" customHeight="1">
-      <c r="A14" s="95"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="93"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="94"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="79"/>
     </row>
     <row r="15" spans="1:25" ht="18.600000000000001" customHeight="1">
-      <c r="A15" s="95"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="93"/>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="94"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="78"/>
+      <c r="Y15" s="79"/>
     </row>
     <row r="16" spans="1:25" ht="18.600000000000001" customHeight="1">
-      <c r="A16" s="95"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="93"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="93"/>
-      <c r="X16" s="93"/>
-      <c r="Y16" s="94"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="78"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="79"/>
     </row>
     <row r="17" spans="1:25" ht="18.600000000000001" customHeight="1">
-      <c r="A17" s="95"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="93"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="93"/>
-      <c r="U17" s="93"/>
-      <c r="V17" s="93"/>
-      <c r="W17" s="93"/>
-      <c r="X17" s="93"/>
-      <c r="Y17" s="94"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="78"/>
+      <c r="T17" s="78"/>
+      <c r="U17" s="78"/>
+      <c r="V17" s="78"/>
+      <c r="W17" s="78"/>
+      <c r="X17" s="78"/>
+      <c r="Y17" s="79"/>
     </row>
     <row r="18" spans="1:25" ht="18.600000000000001" customHeight="1">
-      <c r="A18" s="95"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="94"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="78"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
+      <c r="W18" s="78"/>
+      <c r="X18" s="78"/>
+      <c r="Y18" s="79"/>
     </row>
     <row r="19" spans="1:25" ht="18.600000000000001" customHeight="1">
-      <c r="A19" s="95"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="93"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="93"/>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="94"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="78"/>
+      <c r="T19" s="78"/>
+      <c r="U19" s="78"/>
+      <c r="V19" s="78"/>
+      <c r="W19" s="78"/>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="79"/>
     </row>
     <row r="20" spans="1:25" ht="18.600000000000001" customHeight="1">
-      <c r="A20" s="95"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="93"/>
-      <c r="T20" s="93"/>
-      <c r="U20" s="93"/>
-      <c r="V20" s="93"/>
-      <c r="W20" s="93"/>
-      <c r="X20" s="93"/>
-      <c r="Y20" s="94"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="79"/>
     </row>
     <row r="21" spans="1:25" ht="18.600000000000001" customHeight="1">
-      <c r="A21" s="95"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="93"/>
-      <c r="R21" s="93"/>
-      <c r="S21" s="93"/>
-      <c r="T21" s="93"/>
-      <c r="U21" s="93"/>
-      <c r="V21" s="93"/>
-      <c r="W21" s="93"/>
-      <c r="X21" s="93"/>
-      <c r="Y21" s="94"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="78"/>
+      <c r="T21" s="78"/>
+      <c r="U21" s="78"/>
+      <c r="V21" s="78"/>
+      <c r="W21" s="78"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="79"/>
     </row>
     <row r="22" spans="1:25" ht="18.600000000000001" customHeight="1">
-      <c r="A22" s="95"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="93"/>
-      <c r="U22" s="93"/>
-      <c r="V22" s="93"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="94"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="78"/>
+      <c r="T22" s="78"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="79"/>
     </row>
     <row r="23" spans="1:25" ht="18.600000000000001" customHeight="1">
-      <c r="A23" s="95"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="93"/>
-      <c r="R23" s="93"/>
-      <c r="S23" s="93"/>
-      <c r="T23" s="93"/>
-      <c r="U23" s="93"/>
-      <c r="V23" s="93"/>
-      <c r="W23" s="93"/>
-      <c r="X23" s="93"/>
-      <c r="Y23" s="94"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="78"/>
+      <c r="S23" s="78"/>
+      <c r="T23" s="78"/>
+      <c r="U23" s="78"/>
+      <c r="V23" s="78"/>
+      <c r="W23" s="78"/>
+      <c r="X23" s="78"/>
+      <c r="Y23" s="79"/>
     </row>
     <row r="24" spans="1:25" ht="18.600000000000001" customHeight="1">
-      <c r="A24" s="95"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="93"/>
-      <c r="S24" s="93"/>
-      <c r="T24" s="93"/>
-      <c r="U24" s="93"/>
-      <c r="V24" s="93"/>
-      <c r="W24" s="93"/>
-      <c r="X24" s="93"/>
-      <c r="Y24" s="94"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="78"/>
+      <c r="T24" s="78"/>
+      <c r="U24" s="78"/>
+      <c r="V24" s="78"/>
+      <c r="W24" s="78"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="79"/>
     </row>
     <row r="25" spans="1:25" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A25" s="97" t="s">
+      <c r="A25" s="82" t="s">
         <v>234</v>
       </c>
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="98"/>
-      <c r="Q25" s="98"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="98"/>
-      <c r="T25" s="98"/>
-      <c r="U25" s="98"/>
-      <c r="V25" s="98"/>
-      <c r="W25" s="98"/>
-      <c r="X25" s="98"/>
-      <c r="Y25" s="99" t="s">
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="83"/>
+      <c r="T25" s="83"/>
+      <c r="U25" s="83"/>
+      <c r="V25" s="83"/>
+      <c r="W25" s="83"/>
+      <c r="X25" s="83"/>
+      <c r="Y25" s="84" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A26" s="65"/>
+      <c r="A26" s="62"/>
     </row>
     <row r="27" spans="1:25" ht="18.600000000000001" customHeight="1">
-      <c r="A27" s="65"/>
+      <c r="A27" s="62"/>
     </row>
     <row r="28" spans="1:25" ht="18.600000000000001" customHeight="1">
-      <c r="A28" s="65"/>
+      <c r="A28" s="62"/>
     </row>
     <row r="29" spans="1:25" ht="18.600000000000001" customHeight="1">
-      <c r="A29" s="65"/>
+      <c r="A29" s="62"/>
     </row>
     <row r="30" spans="1:25" ht="18.600000000000001" customHeight="1">
-      <c r="A30" s="65"/>
+      <c r="A30" s="62"/>
     </row>
     <row r="31" spans="1:25" ht="18.600000000000001" customHeight="1">
-      <c r="A31" s="65"/>
+      <c r="A31" s="62"/>
     </row>
     <row r="32" spans="1:25" ht="18.600000000000001" customHeight="1">
-      <c r="A32" s="70"/>
+      <c r="A32" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12496,7 +13189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70917FC3-769F-435F-8690-BAAFBE50C006}">
   <dimension ref="A1:AA277"/>
   <sheetViews>
-    <sheetView topLeftCell="B156" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C163" workbookViewId="0">
       <selection activeCell="H163" sqref="H163"/>
     </sheetView>
   </sheetViews>
@@ -12515,39 +13208,39 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" customHeight="1"/>
     <row r="2" spans="2:13" ht="59.25" customHeight="1">
-      <c r="B2" s="108" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="110"/>
+      <c r="B2" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="104"/>
     </row>
     <row r="3" spans="2:13" ht="15" customHeight="1"/>
     <row r="4" spans="2:13" ht="33" customHeight="1">
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="113"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="95"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="111" t="s">
+      <c r="L4" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="113"/>
+      <c r="M4" s="95"/>
     </row>
     <row r="5" spans="2:13" ht="196.2" customHeight="1">
       <c r="C5"/>
@@ -12557,10 +13250,10 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:13" ht="33" customHeight="1">
-      <c r="L6" s="111" t="s">
+      <c r="L6" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="113"/>
+      <c r="M6" s="95"/>
     </row>
     <row r="7" spans="2:13" ht="113.4" customHeight="1">
       <c r="K7" s="4"/>
@@ -12568,52 +13261,52 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
     </row>
     <row r="9" spans="2:13" ht="58.5" customHeight="1">
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
     </row>
     <row r="10" spans="2:13" ht="125.4" customHeight="1">
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1">
       <c r="B11" s="5"/>
@@ -12630,20 +13323,20 @@
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="113"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="95"/>
     </row>
     <row r="13" spans="2:13" ht="15" customHeight="1">
       <c r="B13" s="7"/>
@@ -12693,15 +13386,15 @@
         <v>12</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="118" t="s">
+      <c r="G16" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="120"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="99"/>
     </row>
     <row r="17" spans="2:13" ht="37.5" customHeight="1">
       <c r="B17" s="15" t="s">
@@ -12720,15 +13413,15 @@
         <f>IF(ISBLANK(Case!E17), 0, IF(E17=Case!E17, 1, -1))</f>
         <v>0</v>
       </c>
-      <c r="G17" s="121" t="s">
+      <c r="G17" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="121"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="121"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="121"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="100"/>
     </row>
     <row r="18" spans="2:13" ht="37.5" customHeight="1">
       <c r="B18" s="15" t="s">
@@ -12747,15 +13440,15 @@
         <f>IF(ISBLANK(Case!E18), 0, IF(E18=Case!E18, 1, -1))</f>
         <v>0</v>
       </c>
-      <c r="G18" s="116" t="s">
+      <c r="G18" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="116"/>
-      <c r="M18" s="116"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
     </row>
     <row r="19" spans="2:13" ht="37.5" customHeight="1">
       <c r="B19" s="15" t="s">
@@ -12774,15 +13467,15 @@
         <f>IF(ISBLANK(Case!E19), 0, IF(E19=Case!E19, 1, -1))</f>
         <v>0</v>
       </c>
-      <c r="G19" s="116" t="s">
+      <c r="G19" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
     </row>
     <row r="20" spans="2:13" ht="37.5" customHeight="1">
       <c r="B20" s="15" t="s">
@@ -12801,15 +13494,15 @@
         <f>IF(ISBLANK(Case!E20), 0, IF(E20=Case!E20, 1, -1))</f>
         <v>0</v>
       </c>
-      <c r="G20" s="116" t="s">
+      <c r="G20" s="92" t="s">
         <v>249</v>
       </c>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="116"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
     </row>
     <row r="21" spans="2:13" ht="37.5" customHeight="1">
       <c r="B21" s="15" t="s">
@@ -12828,34 +13521,34 @@
         <f>IF(ISBLANK(Case!E21), 0, IF(E21=Case!E21, 1, -1))</f>
         <v>0</v>
       </c>
-      <c r="G21" s="116" t="s">
+      <c r="G21" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="116"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1">
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="2:13" ht="23.4">
-      <c r="B23" s="111" t="s">
+      <c r="B23" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="112"/>
-      <c r="M23" s="113"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="95"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" thickBot="1">
       <c r="B24" s="22"/>
@@ -12880,19 +13573,19 @@
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="18"/>
-      <c r="L25" s="126" t="s">
+      <c r="L25" s="111" t="s">
         <v>251</v>
       </c>
-      <c r="M25" s="127"/>
+      <c r="M25" s="112"/>
     </row>
     <row r="26" spans="2:13" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="B26" s="27"/>
       <c r="F26" s="18"/>
-      <c r="L26" s="128" cm="1">
+      <c r="L26" s="113" cm="1">
         <f t="array" ref="L26">SUMPRODUCT(--(F17:F275=1),D17:D275)</f>
-        <v>560</v>
-      </c>
-      <c r="M26" s="129"/>
+        <v>760</v>
+      </c>
+      <c r="M26" s="114"/>
     </row>
     <row r="27" spans="2:13" s="9" customFormat="1" ht="14.4" customHeight="1">
       <c r="B27" s="10" t="s">
@@ -12903,8 +13596,8 @@
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
-      <c r="L27" s="130"/>
-      <c r="M27" s="131"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="116"/>
     </row>
     <row r="28" spans="2:13" s="9" customFormat="1" ht="14.4" customHeight="1">
       <c r="B28" s="29"/>
@@ -12913,8 +13606,8 @@
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="133"/>
+      <c r="L28" s="117"/>
+      <c r="M28" s="118"/>
     </row>
     <row r="29" spans="2:13" s="9" customFormat="1" ht="14.4" customHeight="1">
       <c r="B29" s="30" t="s">
@@ -14446,7 +15139,7 @@
       <c r="J94" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="K94" s="100" t="s">
+      <c r="K94" s="85" t="s">
         <v>247</v>
       </c>
       <c r="L94" s="51"/>
@@ -17171,7 +17864,7 @@
       </c>
       <c r="F210" s="18">
         <f>IF(ISBLANK(Case!E210), 0, IF(E210=Case!E210, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G210" s="36" t="s">
         <v>129</v>
@@ -17204,7 +17897,7 @@
       </c>
       <c r="F211" s="18">
         <f>IF(ISBLANK(Case!E211), 0, IF(E211=Case!E211, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G211" s="36" t="s">
         <v>131</v>
@@ -17237,7 +17930,7 @@
       </c>
       <c r="F212" s="18">
         <f>IF(ISBLANK(Case!E212), 0, IF(E212=Case!E212, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G212" s="36" t="s">
         <v>133</v>
@@ -17270,7 +17963,7 @@
       </c>
       <c r="F213" s="18">
         <f>IF(ISBLANK(Case!E213), 0, IF(E213=Case!E213, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G213" s="36" t="s">
         <v>136</v>
@@ -17303,7 +17996,7 @@
       </c>
       <c r="F214" s="18">
         <f>IF(ISBLANK(Case!E214), 0, IF(E214=Case!E214, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G214" s="36" t="s">
         <v>138</v>
@@ -17336,7 +18029,7 @@
       </c>
       <c r="F215" s="18">
         <f>IF(ISBLANK(Case!E215), 0, IF(E215=Case!E215, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G215" s="36" t="s">
         <v>142</v>
@@ -17369,7 +18062,7 @@
       </c>
       <c r="F216" s="18">
         <f>IF(ISBLANK(Case!E216), 0, IF(E216=Case!E216, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G216" s="36" t="s">
         <v>144</v>
@@ -17402,7 +18095,7 @@
       </c>
       <c r="F217" s="18">
         <f>IF(ISBLANK(Case!E217), 0, IF(E217=Case!E217, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G217" s="36" t="s">
         <v>146</v>
@@ -17435,7 +18128,7 @@
       </c>
       <c r="F218" s="18">
         <f>IF(ISBLANK(Case!E218), 0, IF(E218=Case!E218, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G218" s="36" t="s">
         <v>149</v>
@@ -17468,7 +18161,7 @@
       </c>
       <c r="F219" s="18">
         <f>IF(ISBLANK(Case!E219), 0, IF(E219=Case!E219, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G219" s="36" t="s">
         <v>148</v>
@@ -17501,7 +18194,7 @@
       </c>
       <c r="F220" s="18">
         <f>IF(ISBLANK(Case!E220), 0, IF(E220=Case!E220, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G220" s="36" t="s">
         <v>152</v>
@@ -17534,7 +18227,7 @@
       </c>
       <c r="F221" s="18">
         <f>IF(ISBLANK(Case!E221), 0, IF(E221=Case!E221, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G221" s="36" t="s">
         <v>141</v>
@@ -17567,7 +18260,7 @@
       </c>
       <c r="F222" s="18">
         <f>IF(ISBLANK(Case!E222), 0, IF(E222=Case!E222, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G222" s="36" t="s">
         <v>129</v>
@@ -17600,7 +18293,7 @@
       </c>
       <c r="F223" s="18">
         <f>IF(ISBLANK(Case!E223), 0, IF(E223=Case!E223, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G223" s="36" t="s">
         <v>127</v>
@@ -17633,7 +18326,7 @@
       </c>
       <c r="F224" s="18">
         <f>IF(ISBLANK(Case!E224), 0, IF(E224=Case!E224, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G224" s="36" t="s">
         <v>129</v>
@@ -17666,7 +18359,7 @@
       </c>
       <c r="F225" s="18">
         <f>IF(ISBLANK(Case!E225), 0, IF(E225=Case!E225, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G225" s="36" t="s">
         <v>140</v>
@@ -17699,7 +18392,7 @@
       </c>
       <c r="F226" s="18">
         <f>IF(ISBLANK(Case!E226), 0, IF(E226=Case!E226, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G226" s="36" t="s">
         <v>135</v>
@@ -17732,7 +18425,7 @@
       </c>
       <c r="F227" s="18">
         <f>IF(ISBLANK(Case!E227), 0, IF(E227=Case!E227, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G227" s="36" t="s">
         <v>132</v>
@@ -17765,7 +18458,7 @@
       </c>
       <c r="F228" s="18">
         <f>IF(ISBLANK(Case!E228), 0, IF(E228=Case!E228, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G228" s="36" t="s">
         <v>153</v>
@@ -17798,7 +18491,7 @@
       </c>
       <c r="F229" s="18">
         <f>IF(ISBLANK(Case!E229), 0, IF(E229=Case!E229, 1, -1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G229" s="36" t="s">
         <v>146</v>
@@ -18744,6 +19437,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M28"/>
     <mergeCell ref="G19:M19"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B4:J4"/>
@@ -18756,11 +19454,6 @@
     <mergeCell ref="G16:M16"/>
     <mergeCell ref="G17:M17"/>
     <mergeCell ref="G18:M18"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2025 Excel Esports Chile - The Grand Excel Fair (Juan Jose Cifuentes) - Case and Answers.xlsx
+++ b/2025 Excel Esports Chile - The Grand Excel Fair (Juan Jose Cifuentes) - Case and Answers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F08B7F-FA19-44D6-869B-7B29B05D5EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABB555A-87E9-479D-BC16-586F338B8380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{7AACD38C-9D70-42DF-BFBB-A00DA8F337DD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7AACD38C-9D70-42DF-BFBB-A00DA8F337DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="273">
   <si>
     <t>Juan José Cifuentes</t>
   </si>
@@ -892,6 +892,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Winner</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1100,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1153,6 +1156,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1504,7 +1519,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1769,8 +1784,21 @@
     <xf numFmtId="0" fontId="32" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1780,6 +1808,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1795,24 +1832,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1850,19 +1869,14 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1920,6 +1934,22 @@
       </fill>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1949,46 +1979,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Fuente de cuerpo"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2117,13 +2107,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -2134,6 +2117,37 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Fuente de cuerpo"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2670,7 +2684,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$R$164:$R$183" spid="_x0000_s1031"/>
+                  <a14:cameraTool cellRange="$R$164:$R$183" spid="_x0000_s1033"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2940,25 +2954,25 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5E2394B9-7F6F-4C2B-8999-D3236720FF86}" name="_tGrades" displayName="_tGrades" ref="B2:F32" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="11" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5E2394B9-7F6F-4C2B-8999-D3236720FF86}" name="_tGrades" displayName="_tGrades" ref="B2:F32" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="B2:F32" xr:uid="{5E2394B9-7F6F-4C2B-8999-D3236720FF86}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{57C44D15-9539-4C7A-AF27-3DD542595CED}" name="Name" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{6AB3778D-ADF5-4EEC-AFB5-F442732B3968}" name="Morphology" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{CA72D8D3-411F-4E27-887D-27E3999B8F07}" name="Coat" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{1C74A9B4-CAD5-4027-959E-9F8A39EE56A9}" name="Height (cm)" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{A1745C57-57FB-4333-A812-928D88BF27BB}" name="Weight (kg)" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{57C44D15-9539-4C7A-AF27-3DD542595CED}" name="Name" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{6AB3778D-ADF5-4EEC-AFB5-F442732B3968}" name="Morphology" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{CA72D8D3-411F-4E27-887D-27E3999B8F07}" name="Coat" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{1C74A9B4-CAD5-4027-959E-9F8A39EE56A9}" name="Height (cm)" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{A1745C57-57FB-4333-A812-928D88BF27BB}" name="Weight (kg)" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EDD43C02-07D5-4927-AC9A-4D1689727078}" name="_tCoat" displayName="_tCoat" ref="H2:I7" totalsRowShown="0" dataDxfId="0" headerRowBorderDxfId="3" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EDD43C02-07D5-4927-AC9A-4D1689727078}" name="_tCoat" displayName="_tCoat" ref="H2:I7" totalsRowShown="0" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2">
   <autoFilter ref="H2:I7" xr:uid="{EDD43C02-07D5-4927-AC9A-4D1689727078}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6550D798-1135-46B2-BAD9-0FF93D7A6D64}" name="Coat" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{E954436F-5CBF-480E-92FE-11E2DAE00E54}" name="Score" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{6550D798-1135-46B2-BAD9-0FF93D7A6D64}" name="Coat" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{E954436F-5CBF-480E-92FE-11E2DAE00E54}" name="Score" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3316,8 +3330,8 @@
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:AA277"/>
   <sheetViews>
-    <sheetView topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="E210" sqref="E210:E229"/>
+    <sheetView tabSelected="1" topLeftCell="D212" workbookViewId="0">
+      <selection activeCell="L205" sqref="L205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8984375" defaultRowHeight="14.4"/>
@@ -3335,39 +3349,39 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" customHeight="1"/>
     <row r="2" spans="2:13" ht="59.25" customHeight="1">
-      <c r="B2" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="104"/>
+      <c r="B2" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="2:13" ht="15" customHeight="1"/>
     <row r="4" spans="2:13" ht="33" customHeight="1">
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="95"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="100"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="93" t="s">
+      <c r="L4" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="95"/>
+      <c r="M4" s="100"/>
     </row>
     <row r="5" spans="2:13" ht="196.2" customHeight="1">
       <c r="C5"/>
@@ -3377,10 +3391,10 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:13" ht="33" customHeight="1">
-      <c r="L6" s="93" t="s">
+      <c r="L6" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="95"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="7" spans="2:13" ht="113.4" customHeight="1">
       <c r="K7" s="4"/>
@@ -3388,52 +3402,52 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="2:13" ht="58.5" customHeight="1">
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
     </row>
     <row r="10" spans="2:13" ht="125.4" customHeight="1">
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1">
       <c r="B11" s="5"/>
@@ -3450,20 +3464,20 @@
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="95"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="100"/>
     </row>
     <row r="13" spans="2:13" ht="15" customHeight="1">
       <c r="B13" s="7"/>
@@ -3513,15 +3527,15 @@
         <v>12</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="97" t="s">
+      <c r="G16" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="99"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="107"/>
     </row>
     <row r="17" spans="2:13" ht="37.5" customHeight="1">
       <c r="B17" s="15" t="s">
@@ -3535,15 +3549,15 @@
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="100" t="s">
+      <c r="G17" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
     </row>
     <row r="18" spans="2:13" ht="37.5" customHeight="1">
       <c r="B18" s="15" t="s">
@@ -3557,15 +3571,15 @@
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="92" t="s">
+      <c r="G18" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
     </row>
     <row r="19" spans="2:13" ht="37.5" customHeight="1">
       <c r="B19" s="15" t="s">
@@ -3579,15 +3593,15 @@
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="92" t="s">
+      <c r="G19" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
     </row>
     <row r="20" spans="2:13" ht="37.5" customHeight="1">
       <c r="B20" s="15" t="s">
@@ -3601,15 +3615,15 @@
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="92" t="s">
+      <c r="G20" s="103" t="s">
         <v>249</v>
       </c>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103"/>
     </row>
     <row r="21" spans="2:13" ht="37.5" customHeight="1">
       <c r="B21" s="15" t="s">
@@ -3623,34 +3637,34 @@
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="92" t="s">
+      <c r="G21" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1">
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="2:13" ht="23.4">
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="95"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="100"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" thickBot="1">
       <c r="B24" s="22"/>
@@ -8500,9 +8514,10 @@
       <c r="H205" s="52"/>
       <c r="I205" s="51"/>
       <c r="J205" s="52"/>
-      <c r="K205" s="51"/>
-      <c r="L205" s="51"/>
-      <c r="M205" s="51"/>
+      <c r="K205" s="53"/>
+      <c r="L205" s="53"/>
+      <c r="M205" s="53"/>
+      <c r="N205" s="18"/>
     </row>
     <row r="206" spans="2:15" s="9" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
       <c r="B206" s="12" t="s">
@@ -8530,9 +8545,21 @@
       <c r="J206" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="K206" s="51"/>
-      <c r="L206" s="51"/>
-      <c r="M206" s="51"/>
+      <c r="K206" s="121" t="s">
+        <v>120</v>
+      </c>
+      <c r="L206" s="121" t="s">
+        <v>121</v>
+      </c>
+      <c r="M206" s="121" t="s">
+        <v>122</v>
+      </c>
+      <c r="N206" s="122" t="s">
+        <v>123</v>
+      </c>
+      <c r="O206" s="123" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="207" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="F207" s="18"/>
@@ -10391,12 +10418,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="B8:M8"/>
     <mergeCell ref="G20:M20"/>
     <mergeCell ref="G21:M21"/>
     <mergeCell ref="B23:M23"/>
@@ -10406,6 +10427,12 @@
     <mergeCell ref="G17:M17"/>
     <mergeCell ref="G18:M18"/>
     <mergeCell ref="G19:M19"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B8:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10667,14 +10694,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.95" customHeight="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="109" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="111"/>
     </row>
     <row r="2" spans="1:13" ht="16.95" customHeight="1">
       <c r="A2" s="61" t="s">
@@ -11545,10 +11572,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.95" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="109"/>
+      <c r="B1" s="111"/>
     </row>
     <row r="2" spans="1:2" ht="16.95" customHeight="1">
       <c r="A2" s="90" t="s">
@@ -11775,18 +11802,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.95" customHeight="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="109" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="109"/>
-      <c r="H1" s="107" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="111"/>
+      <c r="H1" s="109" t="s">
         <v>219</v>
       </c>
-      <c r="I1" s="109"/>
+      <c r="I1" s="111"/>
     </row>
     <row r="2" spans="1:9" ht="16.95" customHeight="1">
       <c r="A2" s="61" t="s">
@@ -11807,10 +11834,10 @@
       <c r="F2" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="92" t="s">
         <v>221</v>
       </c>
-      <c r="I2" s="124" t="s">
+      <c r="I2" s="93" t="s">
         <v>224</v>
       </c>
     </row>
@@ -11833,10 +11860,10 @@
       <c r="F3" s="73">
         <v>470</v>
       </c>
-      <c r="H3" s="122" t="s">
+      <c r="H3" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="I3" s="122">
+      <c r="I3" s="60">
         <v>2</v>
       </c>
     </row>
@@ -11856,13 +11883,13 @@
       <c r="E4" s="65">
         <v>142</v>
       </c>
-      <c r="F4" s="119">
+      <c r="F4" s="65">
         <v>450</v>
       </c>
-      <c r="H4" s="122" t="s">
+      <c r="H4" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="I4" s="122">
+      <c r="I4" s="60">
         <v>4</v>
       </c>
     </row>
@@ -11882,13 +11909,13 @@
       <c r="E5" s="65">
         <v>148</v>
       </c>
-      <c r="F5" s="119">
+      <c r="F5" s="65">
         <v>500</v>
       </c>
-      <c r="H5" s="122" t="s">
+      <c r="H5" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="I5" s="122">
+      <c r="I5" s="60">
         <v>6.0000000000000009</v>
       </c>
     </row>
@@ -11908,13 +11935,13 @@
       <c r="E6" s="65">
         <v>150</v>
       </c>
-      <c r="F6" s="119">
+      <c r="F6" s="65">
         <v>460</v>
       </c>
-      <c r="H6" s="122" t="s">
+      <c r="H6" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="I6" s="122">
+      <c r="I6" s="60">
         <v>8</v>
       </c>
     </row>
@@ -11934,13 +11961,13 @@
       <c r="E7" s="65">
         <v>144</v>
       </c>
-      <c r="F7" s="119">
+      <c r="F7" s="65">
         <v>475</v>
       </c>
-      <c r="H7" s="122" t="s">
+      <c r="H7" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="122">
+      <c r="I7" s="60">
         <v>10</v>
       </c>
     </row>
@@ -11960,7 +11987,7 @@
       <c r="E8" s="65">
         <v>140</v>
       </c>
-      <c r="F8" s="119">
+      <c r="F8" s="65">
         <v>430</v>
       </c>
     </row>
@@ -11980,7 +12007,7 @@
       <c r="E9" s="65">
         <v>142</v>
       </c>
-      <c r="F9" s="119">
+      <c r="F9" s="65">
         <v>525</v>
       </c>
     </row>
@@ -12000,7 +12027,7 @@
       <c r="E10" s="65">
         <v>141</v>
       </c>
-      <c r="F10" s="119">
+      <c r="F10" s="65">
         <v>455</v>
       </c>
     </row>
@@ -12020,7 +12047,7 @@
       <c r="E11" s="65">
         <v>146</v>
       </c>
-      <c r="F11" s="119">
+      <c r="F11" s="65">
         <v>480</v>
       </c>
     </row>
@@ -12040,7 +12067,7 @@
       <c r="E12" s="65">
         <v>141</v>
       </c>
-      <c r="F12" s="119">
+      <c r="F12" s="65">
         <v>445</v>
       </c>
     </row>
@@ -12060,7 +12087,7 @@
       <c r="E13" s="65">
         <v>149</v>
       </c>
-      <c r="F13" s="119">
+      <c r="F13" s="65">
         <v>505</v>
       </c>
     </row>
@@ -12080,7 +12107,7 @@
       <c r="E14" s="65">
         <v>152</v>
       </c>
-      <c r="F14" s="119">
+      <c r="F14" s="65">
         <v>470</v>
       </c>
     </row>
@@ -12100,7 +12127,7 @@
       <c r="E15" s="65">
         <v>142</v>
       </c>
-      <c r="F15" s="119">
+      <c r="F15" s="65">
         <v>440</v>
       </c>
     </row>
@@ -12120,7 +12147,7 @@
       <c r="E16" s="65">
         <v>145</v>
       </c>
-      <c r="F16" s="119">
+      <c r="F16" s="65">
         <v>495</v>
       </c>
     </row>
@@ -12140,7 +12167,7 @@
       <c r="E17" s="65">
         <v>148</v>
       </c>
-      <c r="F17" s="119">
+      <c r="F17" s="65">
         <v>475</v>
       </c>
     </row>
@@ -12160,7 +12187,7 @@
       <c r="E18" s="65">
         <v>142</v>
       </c>
-      <c r="F18" s="119">
+      <c r="F18" s="65">
         <v>450</v>
       </c>
     </row>
@@ -12180,7 +12207,7 @@
       <c r="E19" s="65">
         <v>146</v>
       </c>
-      <c r="F19" s="119">
+      <c r="F19" s="65">
         <v>490</v>
       </c>
     </row>
@@ -12200,7 +12227,7 @@
       <c r="E20" s="65">
         <v>141</v>
       </c>
-      <c r="F20" s="119">
+      <c r="F20" s="65">
         <v>430</v>
       </c>
     </row>
@@ -12220,7 +12247,7 @@
       <c r="E21" s="65">
         <v>144</v>
       </c>
-      <c r="F21" s="119">
+      <c r="F21" s="65">
         <v>435</v>
       </c>
     </row>
@@ -12240,7 +12267,7 @@
       <c r="E22" s="65">
         <v>148</v>
       </c>
-      <c r="F22" s="119">
+      <c r="F22" s="65">
         <v>500</v>
       </c>
     </row>
@@ -12260,7 +12287,7 @@
       <c r="E23" s="65">
         <v>140</v>
       </c>
-      <c r="F23" s="119">
+      <c r="F23" s="65">
         <v>440</v>
       </c>
     </row>
@@ -12280,7 +12307,7 @@
       <c r="E24" s="65">
         <v>149</v>
       </c>
-      <c r="F24" s="119">
+      <c r="F24" s="65">
         <v>470</v>
       </c>
     </row>
@@ -12300,7 +12327,7 @@
       <c r="E25" s="65">
         <v>143</v>
       </c>
-      <c r="F25" s="119">
+      <c r="F25" s="65">
         <v>480</v>
       </c>
     </row>
@@ -12320,7 +12347,7 @@
       <c r="E26" s="65">
         <v>143</v>
       </c>
-      <c r="F26" s="119">
+      <c r="F26" s="65">
         <v>455</v>
       </c>
     </row>
@@ -12340,7 +12367,7 @@
       <c r="E27" s="65">
         <v>142</v>
       </c>
-      <c r="F27" s="119">
+      <c r="F27" s="65">
         <v>430</v>
       </c>
     </row>
@@ -12360,7 +12387,7 @@
       <c r="E28" s="65">
         <v>147</v>
       </c>
-      <c r="F28" s="119">
+      <c r="F28" s="65">
         <v>485</v>
       </c>
     </row>
@@ -12380,7 +12407,7 @@
       <c r="E29" s="65">
         <v>144</v>
       </c>
-      <c r="F29" s="119">
+      <c r="F29" s="65">
         <v>445</v>
       </c>
     </row>
@@ -12400,7 +12427,7 @@
       <c r="E30" s="65">
         <v>146</v>
       </c>
-      <c r="F30" s="119">
+      <c r="F30" s="65">
         <v>470</v>
       </c>
     </row>
@@ -12420,7 +12447,7 @@
       <c r="E31" s="65">
         <v>150</v>
       </c>
-      <c r="F31" s="119">
+      <c r="F31" s="65">
         <v>510</v>
       </c>
     </row>
@@ -12428,19 +12455,19 @@
       <c r="A32" s="66">
         <v>30</v>
       </c>
-      <c r="B32" s="120" t="s">
+      <c r="B32" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="121">
+      <c r="C32" s="64">
         <v>70</v>
       </c>
-      <c r="D32" s="121" t="s">
+      <c r="D32" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="E32" s="119">
+      <c r="E32" s="65">
         <v>141</v>
       </c>
-      <c r="F32" s="119">
+      <c r="F32" s="65">
         <v>430</v>
       </c>
     </row>
@@ -13189,8 +13216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70917FC3-769F-435F-8690-BAAFBE50C006}">
   <dimension ref="A1:AA277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C163" workbookViewId="0">
-      <selection activeCell="H163" sqref="H163"/>
+    <sheetView topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="E197" sqref="E197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8984375" defaultRowHeight="14.4"/>
@@ -13208,39 +13235,39 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" customHeight="1"/>
     <row r="2" spans="2:13" ht="59.25" customHeight="1">
-      <c r="B2" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="104"/>
+      <c r="B2" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="2:13" ht="15" customHeight="1"/>
     <row r="4" spans="2:13" ht="33" customHeight="1">
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="95"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="100"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="93" t="s">
+      <c r="L4" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="95"/>
+      <c r="M4" s="100"/>
     </row>
     <row r="5" spans="2:13" ht="196.2" customHeight="1">
       <c r="C5"/>
@@ -13250,10 +13277,10 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:13" ht="33" customHeight="1">
-      <c r="L6" s="93" t="s">
+      <c r="L6" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="95"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="7" spans="2:13" ht="113.4" customHeight="1">
       <c r="K7" s="4"/>
@@ -13261,52 +13288,52 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="2:13" ht="58.5" customHeight="1">
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
     </row>
     <row r="10" spans="2:13" ht="125.4" customHeight="1">
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1">
       <c r="B11" s="5"/>
@@ -13323,20 +13350,20 @@
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="95"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="100"/>
     </row>
     <row r="13" spans="2:13" ht="15" customHeight="1">
       <c r="B13" s="7"/>
@@ -13386,15 +13413,15 @@
         <v>12</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="97" t="s">
+      <c r="G16" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="99"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="107"/>
     </row>
     <row r="17" spans="2:13" ht="37.5" customHeight="1">
       <c r="B17" s="15" t="s">
@@ -13413,15 +13440,15 @@
         <f>IF(ISBLANK(Case!E17), 0, IF(E17=Case!E17, 1, -1))</f>
         <v>0</v>
       </c>
-      <c r="G17" s="100" t="s">
+      <c r="G17" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
     </row>
     <row r="18" spans="2:13" ht="37.5" customHeight="1">
       <c r="B18" s="15" t="s">
@@ -13440,15 +13467,15 @@
         <f>IF(ISBLANK(Case!E18), 0, IF(E18=Case!E18, 1, -1))</f>
         <v>0</v>
       </c>
-      <c r="G18" s="92" t="s">
+      <c r="G18" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
     </row>
     <row r="19" spans="2:13" ht="37.5" customHeight="1">
       <c r="B19" s="15" t="s">
@@ -13467,15 +13494,15 @@
         <f>IF(ISBLANK(Case!E19), 0, IF(E19=Case!E19, 1, -1))</f>
         <v>0</v>
       </c>
-      <c r="G19" s="92" t="s">
+      <c r="G19" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
     </row>
     <row r="20" spans="2:13" ht="37.5" customHeight="1">
       <c r="B20" s="15" t="s">
@@ -13494,15 +13521,15 @@
         <f>IF(ISBLANK(Case!E20), 0, IF(E20=Case!E20, 1, -1))</f>
         <v>0</v>
       </c>
-      <c r="G20" s="92" t="s">
+      <c r="G20" s="103" t="s">
         <v>249</v>
       </c>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103"/>
     </row>
     <row r="21" spans="2:13" ht="37.5" customHeight="1">
       <c r="B21" s="15" t="s">
@@ -13521,34 +13548,34 @@
         <f>IF(ISBLANK(Case!E21), 0, IF(E21=Case!E21, 1, -1))</f>
         <v>0</v>
       </c>
-      <c r="G21" s="92" t="s">
+      <c r="G21" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1">
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="2:13" ht="23.4">
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="95"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="100"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" thickBot="1">
       <c r="B24" s="22"/>
@@ -13573,19 +13600,19 @@
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="18"/>
-      <c r="L25" s="111" t="s">
+      <c r="L25" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="M25" s="112"/>
+      <c r="M25" s="114"/>
     </row>
     <row r="26" spans="2:13" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="B26" s="27"/>
       <c r="F26" s="18"/>
-      <c r="L26" s="113" cm="1">
+      <c r="L26" s="115" cm="1">
         <f t="array" ref="L26">SUMPRODUCT(--(F17:F275=1),D17:D275)</f>
         <v>760</v>
       </c>
-      <c r="M26" s="114"/>
+      <c r="M26" s="116"/>
     </row>
     <row r="27" spans="2:13" s="9" customFormat="1" ht="14.4" customHeight="1">
       <c r="B27" s="10" t="s">
@@ -13596,8 +13623,8 @@
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
-      <c r="L27" s="115"/>
-      <c r="M27" s="116"/>
+      <c r="L27" s="117"/>
+      <c r="M27" s="118"/>
     </row>
     <row r="28" spans="2:13" s="9" customFormat="1" ht="14.4" customHeight="1">
       <c r="B28" s="29"/>
@@ -13606,8 +13633,8 @@
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
-      <c r="L28" s="117"/>
-      <c r="M28" s="118"/>
+      <c r="L28" s="119"/>
+      <c r="M28" s="120"/>
     </row>
     <row r="29" spans="2:13" s="9" customFormat="1" ht="14.4" customHeight="1">
       <c r="B29" s="30" t="s">
@@ -19437,11 +19464,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M28"/>
     <mergeCell ref="G19:M19"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B4:J4"/>
@@ -19454,6 +19476,11 @@
     <mergeCell ref="G16:M16"/>
     <mergeCell ref="G17:M17"/>
     <mergeCell ref="G18:M18"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
